--- a/recommendApi/media/cvsDbData.xlsx
+++ b/recommendApi/media/cvsDbData.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,21 +444,6 @@
           <t>fulltext</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>fulltext1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>fulltext2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>fulltext3</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -471,22 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lập Trình Viên Công ty cổ phần phần mềm Quảng Ích Được tiếp cận với các dự án điển hình và cổ điển của ASP.NET và .NET Core, bên cạnh đó em cũng được tiếp cận với một vài Template dựng sẵn như Blazor WebAssembly - Blazor Server, em thực sự rất thích vì có thể custom trên Template này rất tự  Thực Tập Sinh Công ty TNHH Công nghệ và truyền thông IIT  Được làm quen với ASP.NET MVC, ASP.NET API, Linq, rèn luyện HTML, JS, CSS, Jquery.NET/C#  SQL  Frontend (HTML/CSS)   Giao tiếp Giải quyết vấn đề Hòa đồng</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>lập trình viên công ty cổ phần phần mềm quảng ích được tiếp cận với các dự án điển hình và cổ điển của aspnet và net core bên cạnh đó em cũng được tiếp cận với một vài template dựng sẵn như blazor webassembly blazor server em thực sự rất thích vì có thể custom trên template này rất tự thực tập sinh công ty tnhh công nghệ và truyền thông iit được làm quen với aspnet mvc aspnet api linq rèn luyện html js css jquerynetc sql frontend htmlcss giao tiếp giải quyết vấn đề hòa đồng</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>lập_trình_viên công_ty cổ_phần phần_mềm quảng_ích được tiếp_cận với các dự_án điển_hình và cổ_điển của aspnet và net core bên cạnh đó em cũng được tiếp_cận với một_vài template dựng sẵn như blazor webassembly blazor server em thực_sự rất thích vì có_thể custom trên template này rất tự thực_tập_sinh công_ty_tnhh công_nghệ và truyền_thông iit được làm_quen với aspnet mvc aspnet api linq rèn_luyện html js css jquerynetc sql frontend htmlcss giao_tiếp giải_quyết vấn_đề hòa đồng</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>lập_trình_viên công_ty cổ_phần phần_mềm quảng_ích tiếp_cận dự_án điển_hình cổ_điển aspnet net core tiếp_cận một_vài template dựng sẵn blazor webassembly blazor server thực_sự có_thể custom template thực_tập_sinh công_ty_tnhh công_nghệ truyền_thông iit làm_quen aspnet mvc aspnet api linq rèn_luyện html js css jquerynetc sql frontend htmlcss giao_tiếp giải_quyết vấn_đề hòa</t>
+          <t>lập_trình_viên công_ty cổ_phần phần_mềm quảng_ích tiếp_cận dự_án điển_hình cổ_điển aspnet net core tiếp_cận một_vài template dựng sẵn blazor webassembly blazor server thực_sự có_thể custom template thực_tập_sinh công_ty_tnhh công_nghệ truyền_thông iit làm_quen aspnet mvc aspnet api linq rèn_luyện html js css jquery netc sql frontend htmlcss giao_tiếp giải_quyết vấn_đề hòa netc sql frontend htmlcss giao_tiếp giải_quyết vấn_đề hòa</t>
         </is>
       </c>
     </row>
@@ -501,22 +471,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Khóa học Fresher Tester Công ty Data Design Việt Nam Thực tập sinh WordPress - Tham gia xây dựng các site WordPress theo yêu cầu (các khóa học blog tin tức bán hàng) -Chỉnh sửa giao diện website bằng CSS - Tìm hiểu và sử dụng Elementor cho công việc. - Hướng dẫn công việc cho người mới - Xây dựng site LMS (moodle). QA/Test   PHP  </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>khóa học fresher tester công ty data design việt nam thực tập sinh wordpress tham gia xây dựng các site wordpress theo yêu cầu các khóa học blog tin tức bán hàng chỉnh sửa giao diện website bằng css tìm hiểu và sử dụng elementor cho công việc hướng dẫn công việc cho người mới xây dựng site lms moodle qatest php</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>khóa học fresher tester công_ty data design việt_nam thực_tập_sinh wordpress tham_gia xây_dựng các site wordpress theo yêu_cầu các khóa học blog tin_tức bán hàng chỉnh_sửa giao_diện website bằng css tìm_hiểu và sử_dụng elementor cho công_việc hướng_dẫn công_việc cho người mới xây_dựng site lms moodle qatest php</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>khóa học fresher tester công_ty data design việt_nam thực_tập_sinh wordpress tham_gia xây_dựng site wordpress yêu_cầu khóa học blog tin_tức hàng chỉnh_sửa giao_diện website css tìm_hiểu sử_dụng elementor công_việc hướng_dẫn công_việc xây_dựng site lms moodle qatest php</t>
+          <t>khóa học fresher tester công_ty data design việt_nam thực_tập_sinh wordpress tham_gia xây_dựng site wordpress yêu_cầu khóa học blog tin_tức hàng chỉnh_sửa giao_diện website css tìm_hiểu sử_dụng elementor công_việc hướng_dẫn công_việc xây_dựng site lms moodle qatest php qatest php</t>
         </is>
       </c>
     </row>
@@ -531,22 +486,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thực Tập Sinh Công ty TNHH Công nghệ và truyền thông IIT  - Được làm quen với ASP.NET MVC, ASP.NET API, Linq, rèn luyện HTML, JS, CSS, Jquery   .NET/C#   SQL   Frontend (HTML/CSS)   Văn phòng </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>thực tập sinh công ty tnhh công nghệ và truyền thông iit được làm quen với aspnet mvc aspnet api linq rèn luyện html js css jquery netc sql frontend htmlcss văn phòng</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>thực_tập_sinh công_ty_tnhh công_nghệ và truyền_thông iit được làm_quen với aspnet mvc aspnet api linq rèn_luyện html js css jquery netc sql frontend htmlcss văn_phòng</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>thực_tập_sinh công_ty_tnhh công_nghệ truyền_thông iit làm_quen aspnet mvc aspnet api linq rèn_luyện html js css jquery netc sql frontend htmlcss văn_phòng</t>
+          <t>thực_tập_sinh công_ty_tnhh công_nghệ truyền_thông iit làm_quen aspnet mvc aspnet api linq rèn_luyện html js css jquery netc sql frontend htmlcss văn_phòng netc sql frontend htmlcss văn_phòng</t>
         </is>
       </c>
     </row>
@@ -561,22 +501,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PHẦN MỀM quản lý quán cà phê Công nghệ sử dụng: java (Swing)Backend   Quản Trị Hệ Thống   QA/Test   Quản Lý Chất Lượng (QA/QC)    Giải quyết vấn đề Làm việc theo nhóm Những kĩ năng thuyết trình</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>phần mềm quản lý quán cà phê công nghệ sử dụng java swingbackend quản trị hệ thống qatest quản lý chất lượng qaqc giải quyết vấn đề làm việc theo nhóm những kĩ năng thuyết trình</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>phần_mềm quản_lý quán cà_phê công_nghệ sử_dụng java swingbackend quản_trị hệ_thống qatest quản_lý chất_lượng qaqc giải_quyết vấn_đề làm_việc theo nhóm những kĩ_năng thuyết_trình</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>phần_mềm quản_lý quán cà_phê công_nghệ sử_dụng java swingbackend quản_trị hệ_thống qatest quản_lý chất_lượng qaqc giải_quyết vấn_đề làm_việc kĩ_năng thuyết_trình</t>
+          <t>phần_mềm quản_lý quán cà_phê công_nghệ sử_dụng java swing backend quản_trị hệ_thống qatest quản_lý chất_lượng qaqc giải_quyết vấn_đề làm_việc kĩ_năng thuyết_trình backend quản_trị hệ_thống qatest quản_lý chất_lượng qaqc giải_quyết vấn_đề làm_việc kĩ_năng thuyết_trình</t>
         </is>
       </c>
     </row>
@@ -591,22 +516,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Python Developer Intern AgilSun Co.  Quản lý cơ sở dữ liệu khách hàng và tạo giao diện người dùng bằng Python, HTML và CSS trong Odoo (OpenERP) Python   Phân tích Quản lý thời gian Hòa đồng Giải quyết vấn đề Làm việc nhóm</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>python developer intern agilsun co quản lý cơ sở dữ liệu khách hàng và tạo giao diện người dùng bằng python html và css trong odoo openerp python phân tích quản lý thời gian hòa đồng giải quyết vấn đề làm việc nhóm</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>python developer intern agilsun co quản_lý cơ_sở dữ_liệu khách_hàng và tạo giao_diện người dùng bằng python html và css trong odoo openerp python phân_tích quản_lý thời_gian hòa đồng giải_quyết vấn_đề làm_việc nhóm</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>python developer intern agilsun co quản_lý cơ_sở dữ_liệu khách_hàng giao_diện python html css odoo openerp python phân_tích quản_lý thời_gian hòa giải_quyết vấn_đề làm_việc</t>
+          <t>python developer intern agilsun co quản_lý cơ_sở dữ_liệu khách_hàng giao_diện python html css odoo openerp python phân_tích quản_lý thời_gian hòa giải_quyết vấn_đề làm_việc python phân_tích quản_lý thời_gian hòa giải_quyết vấn_đề làm_việc</t>
         </is>
       </c>
     </row>
@@ -621,22 +531,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EXPERIENCES LẬP TRÌNH VIÊN BACKEND EG Tech Group LẬP TRÌNH VIÊN BACK END EG Tech Group 07/2022  - Ứng dụng công nghệ NodeJS Express NEST JS, Swagger... - Cơ sở dữ liệu SQL ServeNodejs, SQL Server Javascript</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>experiences lập trình viên backend eg tech group lập trình viên back end eg tech group 072022 ứng dụng công nghệ nodejs express nest js swagger cơ sở dữ liệu sql servenodejs sql server javascript</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>experiences lập_trình_viên backend eg tech group lập_trình_viên back end eg tech group 072022 ứng_dụng công_nghệ nodejs express nest js swagger cơ_sở dữ_liệu sql servenodejs sql server javascript</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>experiences lập_trình_viên backend eg tech group lập_trình_viên back end eg tech group ứng_dụng công_nghệ nodejs express nest js swagger cơ_sở dữ_liệu sql servenodejs sql server javascript</t>
+          <t>experiences lập_trình_viên backend eg tech group lập_trình_viên back end eg tech group ứng_dụng công_nghệ nodejs express nest js swagger cơ_sở dữ_liệu sql serve nodejs sql server javascript nodejs sql server javascript</t>
         </is>
       </c>
     </row>
@@ -651,22 +546,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lập Trình Viên Outsource Làm freelancer Nhận các project php laravel  C/C++   PHP   Trợ Giảng   Javascript    Làm việc nhóm </t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>lập trình viên outsource làm freelancer nhận các project php laravel cc php trợ giảng javascript làm việc nhóm</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>lập_trình_viên outsource làm freelancer nhận các project php laravel cc php trợ_giảng javascript làm_việc nhóm</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>lập_trình_viên outsource freelancer project php laravel cc php trợ_giảng javascript làm_việc</t>
+          <t>lập_trình_viên outsource freelancer project php laravel cc php trợ_giảng javascript làm_việc cc php trợ_giảng javascript làm_việc</t>
         </is>
       </c>
     </row>
@@ -681,22 +561,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nhân Viên Lập Trình PHP Công ty TNHH Cao Phong  - Làm các dự án PHP về framwork Laravel - Phát triển các hệ thống phần mềm nội bộ công ty.  Nhân Viên Lập Trình PHP Công ty TNHH Bảo Phúc  - Làm các dự án về PHP thuần - Phát triển và ứng dụng một số phần mềm nội bộ..NET/C#   SQL   PHP   Frontend (HTML/CSS)   Java  </t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nhân viên lập trình php công ty tnhh cao phong làm các dự án php về framwork laravel phát triển các hệ thống phần mềm nội bộ công ty nhân viên lập trình php công ty tnhh bảo phúc làm các dự án về php thuần phát triển và ứng dụng một số phần mềm nội bộnetc sql php frontend htmlcss java</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nhân_viên lập_trình php công_ty_tnhh cao phong làm các dự_án php về framwork laravel phát_triển các hệ_thống phần_mềm nội_bộ công_ty nhân_viên lập_trình php công_ty_tnhh bảo phúc làm các dự_án về php thuần phát_triển và ứng_dụng một_số phần_mềm nội bộnetc sql php frontend htmlcss java</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nhân_viên lập_trình php công_ty_tnhh phong dự_án php framwork laravel phát_triển hệ_thống phần_mềm nội_bộ công_ty nhân_viên lập_trình php công_ty_tnhh phúc dự_án php phát_triển ứng_dụng một_số phần_mềm nội bộnetc sql php frontend htmlcss java</t>
+          <t>nhân_viên lập_trình php công_ty_tnhh phong dự_án php framwork laravel phát_triển hệ_thống phần_mềm nội_bộ công_ty nhân_viên lập_trình php công_ty_tnhh phúc dự_án php phát_triển ứng_dụng một_số phần_mềm nội_bộ netc sql php frontend htmlcss java netc sql php frontend htmlcss java</t>
         </is>
       </c>
     </row>
@@ -711,22 +576,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unity Game Developer Diffcat UI, Animation, Fix bug, code, clean code  3d Game Artist Glass Egg Digital Media Limited model 3d car exterior cho Forza project.NET/C#   C/C++   Thiết Kế Game   Thiết Kế 3D  </t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>unity game developer diffcat ui animation fix bug code clean code 3d game artist glass egg digital media limited model 3d car exterior cho forza projectnetc cc thiết kế game thiết kế 3d</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>unity game developer diffcat ui animation fix bug code clean code 3d game artist glass egg digital media limited model 3d car exterior cho forza projectnetc cc thiết_kế game thiết_kế 3d</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>unity game developer diffcat ui animation fix bug code clean code game artist glass egg digital media limited model car exterior forza projectnetc cc thiết_kế game thiết_kế</t>
+          <t>unity game developer diffcat ui animation fix bug code clean code game artist glass egg digital media limited model car exterior forza project netc cc thiết_kế game thiết_kế netc cc thiết_kế game thiết_kế</t>
         </is>
       </c>
     </row>
@@ -741,22 +591,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">RPA Developer YKK Việt Nam Update phần mềm theo yêu cầu User Xử lý lỗi dữ liệu trong hệ thống của công ty  Nhân Viên ERP Công Ty TNHH Hệ Thống Thông Tin FPT (FPT IS) - Chi Nhánh TP Hồ Chí Minh Vai tròTesterJava   SQL   Oracle   Triển Khai Phần Mềm  </t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>rpa developer ykk việt nam update phần mềm theo yêu cầu user xử lý lỗi dữ liệu trong hệ thống của công ty nhân viên erp công ty tnhh hệ thống thông tin fpt fpt is chi nhánh tp hồ chí minh vai tròtesterjava sql oracle triển khai phần mềm</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>rpa developer ykk việt nam update phần_mềm theo yêu_cầu user xử_lý lỗi dữ_liệu trong hệ_thống của công_ty nhân_viên erp công_ty_tnhh hệ_thống thông_tin fpt fpt is chi_nhánh tp hồ chí minh vai tròtesterjava sql oracle triển_khai phần_mềm</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>rpa developer ykk việt nam update phần_mềm yêu_cầu user xử_lý lỗi dữ_liệu hệ_thống công_ty nhân_viên erp công_ty_tnhh hệ_thống thông_tin fpt fpt is chi_nhánh tp minh vai tròtesterjava sql oracle triển_khai phần_mềm</t>
+          <t>rpa developer ykk việt nam update phần_mềm yêu_cầu user xử_lý lỗi dữ_liệu hệ_thống công_ty nhân_viên erp công_ty_tnhh hệ_thống thông_tin fpt fpt is chi_nhánh tp minh vai tròtester java sql oracle triển_khai phần_mềm java sql oracle triển_khai phần_mềm</t>
         </is>
       </c>
     </row>
@@ -771,22 +606,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Freelancer Teamwork Nhận yêu cầu từ khách hàng và lập trình phần mềm dựa trên ngôn ngữ C# Winform .NET Framework  +Xây dựng giao diện Winform C# và ASP.NET MVC dùng cơ sở dữ liệu SQL Server(T-SQL, trigger, transaction) tạo các procedure thống kê, báo cáo cho các phần mềm: Quản ly quán cà phê, Quản lý xuất nhập kho (giày-dép; hàng thủ công),  +Xây dựng các tool tự động kiểm tra, xử lý dữ liệu theo yêu cầu từ các file excel, csv,... và cập nhật vào Server  +Thiết kế: logo, banner, name card cho khách hàng bằng: Photoshop  Sen Sanctuary Joint Stock Company Quản trị website (Open Cart) Khắc phục sự cố khi có vấn đề về hệ thống.   Triển Khai Phần Mềm   .NET/C#   Adobe Photoshop   ASP.NET   Tự Động Hóa   Dựng Phim/Hiệu Ứng Video   CNTT - Phần mềm   IT Helpdesk   Oracle   SQL    Quản lý nhóm Tin học văn phòng Giao tiếp Giải quyết vấn đề Làm việc nhóm Phân tích Hòa đồng Lập kế hoạch</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>freelancer teamwork nhận yêu cầu từ khách hàng và lập trình phần mềm dựa trên ngôn ngữ c winform net framework xây dựng giao diện winform c và aspnet mvc dùng cơ sở dữ liệu sql servertsql trigger transaction tạo các procedure thống kê báo cáo cho các phần mềm quản ly quán cà phê quản lý xuất nhập kho giàydép hàng thủ công xây dựng các tool tự động kiểm tra xử lý dữ liệu theo yêu cầu từ các file excel csv và cập nhật vào server thiết kế logo banner name card cho khách hàng bằng photoshop sen sanctuary joint stock company quản trị website open cart khắc phục sự cố khi có vấn đề về hệ thống triển khai phần mềm netc adobe photoshop aspnet tự động hóa dựng phimhiệu ứng video cntt phần mềm it helpdesk oracle sql quản lý nhóm tin học văn phòng giao tiếp giải quyết vấn đề làm việc nhóm phân tích hòa đồng lập kế hoạch</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>freelancer teamwork nhận yêu_cầu từ khách_hàng và lập_trình phần_mềm dựa trên ngôn_ngữ c winform net framework xây_dựng giao_diện winform c và aspnet mvc dùng cơ_sở dữ_liệu sql servertsql trigger transaction tạo các procedure thống_kê báo_cáo cho các phần_mềm quản ly quán cà_phê quản_lý xuất nhập kho giàydép hàng thủ_công xây_dựng các tool tự_động kiểm_tra xử_lý dữ_liệu theo yêu_cầu từ các file excel csv và cập_nhật vào server thiết_kế logo banner name card cho khách_hàng bằng photoshop sen sanctuary joint stock company quản_trị website open cart khắc_phục sự_cố khi có vấn_đề về hệ_thống triển_khai phần_mềm netc adobe photoshop aspnet tự_động hóa dựng phimhiệu ứng video cntt phần_mềm it helpdesk oracle sql quản_lý nhóm tin_học văn_phòng giao_tiếp giải_quyết vấn_đề làm_việc nhóm phân_tích hòa đồng lập kế_hoạch</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>freelancer teamwork yêu_cầu khách_hàng lập_trình phần_mềm dựa ngôn_ngữ c winform net framework xây_dựng giao_diện winform c aspnet mvc cơ_sở dữ_liệu sql servertsql trigger transaction procedure thống_kê báo_cáo phần_mềm quản ly quán cà_phê quản_lý nhập kho giàydép hàng thủ_công xây_dựng tool tự_động kiểm_tra xử_lý dữ_liệu yêu_cầu file excel csv cập_nhật server thiết_kế logo banner name card khách_hàng photoshop sen sanctuary joint stock company quản_trị website open cart khắc_phục sự_cố vấn_đề hệ_thống triển_khai phần_mềm netc adobe photoshop aspnet tự_động hóa dựng phimhiệu ứng video cntt phần_mềm it helpdesk oracle sql quản_lý tin_học văn_phòng giao_tiếp giải_quyết vấn_đề làm_việc phân_tích hòa kế_hoạch</t>
+          <t>freelancer teamwork yêu_cầu khách_hàng lập_trình phần_mềm dựa ngôn_ngữ c winform net framework xây_dựng giao_diện winform c aspnet mvc cơ_sở dữ_liệu sql servertsql trigger transaction procedure thống_kê báo_cáo phần_mềm quản ly quán cà_phê quản_lý nhập kho giàydép hàng thủ_công xây_dựng tool tự_động kiểm_tra xử_lý dữ_liệu yêu_cầu file excel csv cập_nhật server thiết_kế logo banner name card khách_hàng photoshop sen sanctuary joint stock company quản_trị website open cart khắc_phục sự_cố vấn_đề hệ_thống triển_khai phần_mềm netc adobe photoshop aspnet tự_động hóa dựng phimhiệu ứng video cntt phần_mềm it helpdesk oracle sql quản_lý tin_học văn_phòng giao_tiếp giải_quyết vấn_đề làm_việc phân_tích hòa kế_hoạch triển_khai phần_mềm netc adobe photoshop aspnet tự_động hóa dựng phimhiệu ứng video cntt phần_mềm it helpdesk oracle sql quản_lý tin_học văn_phòng giao_tiếp giải_quyết vấn_đề làm_việc phân_tích hòa kế_hoạch</t>
         </is>
       </c>
     </row>
@@ -801,22 +621,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nhân Viên Công ty tư nhân Tiếp nhận thông tin tư quản lý Lập trình theo yêu cầu khách hàng Ngôn ngữ lập trình PHPAdobe Photoshop   Thiết Kế 3D   Php  Làm việc nhóm  </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>nhân viên công ty tư nhân tiếp nhận thông tin tư quản lý lập trình theo yêu cầu khách hàng ngôn ngữ lập trình phpadobe photoshop thiết kế 3d php làm việc nhóm</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>nhân_viên công_ty tư_nhân tiếp_nhận thông_tin tư quản_lý lập_trình theo yêu_cầu khách_hàng ngôn_ngữ lập_trình phpadobe photoshop thiết_kế 3d php làm_việc nhóm</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>nhân_viên công_ty tư_nhân tiếp_nhận thông_tin tư quản_lý lập_trình yêu_cầu khách_hàng ngôn_ngữ lập_trình phpadobe photoshop thiết_kế php làm_việc</t>
+          <t>nhân_viên công_ty tư_nhân tiếp_nhận thông_tin tư quản_lý lập_trình yêu_cầu khách_hàng ngôn_ngữ lập_trình php adobe photoshop thiết_kế php làm_việc adobe photoshop thiết_kế php làm_việc</t>
         </is>
       </c>
     </row>
@@ -831,22 +636,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thực tập sinh Allnet GmbH PHP Developer, SQL, Full-Stack  Developer iXenso AG SAP, Eclipse, PHPQuản Lý Dự Án (IT)   SQL   Oracle   PHP   SAP   Frontend (HTML/CSS)   Data Warehouse   Java    Quản lý thời gian Thuyết trình Lập kế hoạch Làm việc nhóm Xây dựng quan hệ Giao tiếp  </t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>thực tập sinh allnet gmbh php developer sql fullstack developer ixenso ag sap eclipse phpquản lý dự án it sql oracle php sap frontend htmlcss data warehouse java quản lý thời gian thuyết trình lập kế hoạch làm việc nhóm xây dựng quan hệ giao tiếp</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>thực_tập_sinh allnet gmbh php developer sql fullstack developer ixenso ag sap eclipse phpquản lý dự_án it sql oracle php sap frontend htmlcss data warehouse java quản_lý thời_gian thuyết_trình lập kế_hoạch làm_việc nhóm xây_dựng quan_hệ giao_tiếp</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>thực_tập_sinh allnet gmbh php developer sql fullstack developer ixenso ag sap eclipse phpquản dự_án it sql oracle php sap frontend htmlcss data warehouse java quản_lý thời_gian thuyết_trình kế_hoạch làm_việc xây_dựng quan_hệ giao_tiếp</t>
+          <t>thực_tập_sinh allnet gmbh php developer sql fullstack developer ixenso ag sap eclipse php quản_lý dự_án it sql oracle php sap frontend htmlcss data warehouse java quản_lý thời_gian thuyết_trình kế_hoạch làm_việc xây_dựng quan_hệ giao_tiếp_quản_lý dự_án it sql oracle php sap frontend htmlcss data warehouse java quản_lý thời_gian thuyết_trình kế_hoạch làm_việc xây_dựng quan_hệ giao_tiếp</t>
         </is>
       </c>
     </row>
@@ -861,22 +651,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lập Trình Viên CÔNG TY TNHH PHÁT TRIỂN PHẦN MỀM TOP SOFTWARE  Phát triển hệ thống ERP cho công ty hệ thống quản lý nhân sự chấm công tính lương quản lý dự án. Làm các hệ thống tính điểm trò chơi chia lợi nhuận và các chức năng khác  Nhân Viên Website CÔNG TY VILAS   Quản lý các website của công ty tạo mới các website cho kols. Định hướng và phát triển các hệ thống cho công ty..NET/C#   SQL   PHP   Google Ads(AdWords)  </t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>lập trình viên công ty tnhh phát triển phần mềm top software phát triển hệ thống erp cho công ty hệ thống quản lý nhân sự chấm công tính lương quản lý dự án làm các hệ thống tính điểm trò chơi chia lợi nhuận và các chức năng khác nhân viên website công ty vilas quản lý các website của công ty tạo mới các website cho kols định hướng và phát triển các hệ thống cho công tynetc sql php google adsadwords</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>lập_trình_viên công_ty_tnhh phát_triển phần_mềm top software phát_triển hệ_thống erp cho công_ty hệ_thống quản_lý nhân_sự chấm công tính lương quản_lý dự_án làm các hệ_thống tính điểm trò_chơi chia lợi_nhuận và các chức_năng khác nhân_viên website công_ty vilas quản_lý các website của công_ty tạo mới các website cho kols định_hướng và phát_triển các hệ_thống cho công tynetc sql php google adsadwords</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>lập_trình_viên công_ty_tnhh phát_triển phần_mềm top software phát_triển hệ_thống erp công_ty hệ_thống quản_lý nhân_sự chấm lương quản_lý dự_án hệ_thống trò_chơi lợi_nhuận chức_năng nhân_viên website công_ty vilas quản_lý website công_ty website kols định_hướng phát_triển hệ_thống tynetc sql php google adsadwords</t>
+          <t>lập_trình_viên công_ty_tnhh phát_triển phần_mềm top software phát_triển hệ_thống erp công_ty hệ_thống quản_lý nhân_sự chấm lương quản_lý dự_án hệ_thống trò_chơi lợi_nhuận chức_năng nhân_viên website công_ty vilas quản_lý website công_ty website kols định_hướng phát_triển hệ_thống công_ty netc sql php google adsadwords netc sql php google adsadwords</t>
         </is>
       </c>
     </row>
@@ -891,22 +666,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nhà phát triển di động (Flutter)  Xây dựng ứng dụng S Living bằng Flutter: Ứng dụng công nghệ IoT để điều khiển các thiết bị trong nhà   Nhà phát triển di động (Flutter) STECH VN  Xây dựng các ứng dụng truyền thông xã hội bằng FlutterFlutter iOS   Android    Quản lý thời gian Giải quyết vấn đề Phân tích  </t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>nhà phát triển di động flutter xây dựng ứng dụng s living bằng flutter ứng dụng công nghệ iot để điều khiển các thiết bị trong nhà nhà phát triển di động flutter stech vn xây dựng các ứng dụng truyền thông xã hội bằng flutterflutter ios android quản lý thời gian giải quyết vấn đề phân tích</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>nhà phát_triển di_động flutter xây_dựng ứng_dụng s living bằng flutter ứng_dụng công_nghệ iot để điều_khiển các thiết_bị trong nhà_nhà phát_triển di_động flutter stech vn xây_dựng các ứng_dụng truyền_thông xã_hội bằng flutterflutter ios android quản_lý thời_gian giải_quyết vấn_đề phân_tích</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>phát_triển di_động flutter xây_dựng ứng_dụng s living flutter ứng_dụng công_nghệ iot điều_khiển thiết_bị nhà_nhà phát_triển di_động flutter stech vn xây_dựng ứng_dụng truyền_thông xã_hội flutterflutter ios android quản_lý thời_gian giải_quyết vấn_đề phân_tích</t>
+          <t>phát_triển di_động flutter xây_dựng ứng_dụng s living flutter ứng_dụng công_nghệ iot điều_khiển thiết_bị nhà_nhà phát_triển di_động flutter stech vn xây_dựng ứng_dụng truyền_thông xã_hội flutter flutter ios android quản_lý thời_gian giải_quyết vấn_đề phân_tích flutter ios android quản_lý thời_gian giải_quyết vấn_đề phân_tích</t>
         </is>
       </c>
     </row>
@@ -921,22 +681,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lập Trình Viên Reactjs -Thực Tập Công ty cổ phần CV365  Làm việc với  ReactJS Javascript   NodeJS   CNTT - Phần mềm</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>lập trình viên reactjs thực tập công ty cổ phần cv365 làm việc với reactjs javascript nodejs cntt phần mềm</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>lập_trình_viên reactjs thực_tập công_ty cổ_phần cv365 làm_việc với reactjs javascript nodejs cntt phần_mềm</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>lập_trình_viên reactjs thực_tập công_ty cổ_phần làm_việc reactjs javascript nodejs cntt phần_mềm</t>
+          <t>lập_trình_viên reactjs thực_tập công_ty cổ_phần làm_việc reactjs javascript nodejs cntt phần_mềm javascript nodejs cntt phần_mềm</t>
         </is>
       </c>
     </row>
@@ -951,22 +696,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nhân Viên Công Ty Cổ Phần Edoctor  Dự án: Nhân viên Mô tả: Quản lý hành chính công ty. Công nghệ: Reactjs + Redux,SWR,React-Query,Boostrap, ReactStrap, Git. Dự án: Bác sĩ Chat &amp; gọi video cho bác sỹ Quản lý lịch hẹn, đồng thời quản lý hỏi đáp cho bác sĩ. Công nghệ: Reactjs + Api Context, Formik, socket.io, stringee, Sass, ReactStrap, service worker, Git.  Developer Transcosmos Technology Art  Product Media (ssp).Nodejs (Adonisjs), ReactJS, Mysql, RedisQuản Trị Mạng   Triển Khai Phần Mềm   Javascript  Giải quyết vấn đề Làm việc nhóm    </t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>nhân viên công ty cổ phần edoctor dự án nhân viên mô tả quản lý hành chính công ty công nghệ reactjs reduxswrreactqueryboostrap reactstrap git dự án bác sĩ chat gọi video cho bác sỹ quản lý lịch hẹn đồng thời quản lý hỏi đáp cho bác sĩ công nghệ reactjs api context formik socketio stringee sass reactstrap service worker git developer transcosmos technology art product media sspnodejs adonisjs reactjs mysql redisquản trị mạng triển khai phần mềm javascript giải quyết vấn đề làm việc nhóm</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>nhân_viên công_ty cổ_phần edoctor dự_án nhân_viên mô_tả quản_lý hành_chính công_ty công_nghệ reactjs reduxswrreactqueryboostrap reactstrap git dự_án bác_sĩ chat gọi video cho bác_sỹ quản_lý_lịch hẹn đồng_thời quản_lý hỏi_đáp cho bác_sĩ công_nghệ reactjs api context formik socketio stringee sass reactstrap service worker git developer transcosmos technology art product media sspnodejs adonisjs reactjs mysql redisquản trị mạng triển_khai phần_mềm javascript giải_quyết vấn_đề làm_việc nhóm</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>nhân_viên công_ty cổ_phần edoctor dự_án nhân_viên mô_tả quản_lý hành_chính công_ty công_nghệ reactjs reduxswrreactqueryboostrap reactstrap git dự_án bác_sĩ chat gọi video bác_sỹ quản_lý_lịch hẹn đồng_thời quản_lý hỏi_đáp bác_sĩ công_nghệ reactjs api context formik socketio stringee sass reactstrap service worker git developer transcosmos technology art product media sspnodejs adonisjs reactjs mysql redisquản triển_khai phần_mềm javascript giải_quyết vấn_đề làm_việc</t>
+          <t>nhân_viên công_ty cổ_phần edoctor dự_án nhân_viên mô_tả quản_lý hành_chính công_ty công_nghệ reactjs reduxswrreactqueryboostrap reactstrap git dự_án bác_sĩ chat gọi video bác_sỹ quản_lý_lịch hẹn đồng_thời quản_lý hỏi_đáp bác_sĩ công_nghệ reactjs api context formik socketio stringee sass reactstrap service worker git developer transcosmos technology art product media sspnodejs adonisjs reactjs mysql redis quản_trị triển_khai phần_mềm javascript giải_quyết vấn_đề làm_việc quản_trị triển_khai phần_mềm javascript giải_quyết vấn_đề làm_việc</t>
         </is>
       </c>
     </row>
@@ -981,22 +711,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lập Trình Viên Thiết Kế CÔNG TY CỔ PHẦN NGUỒN MỞ VIỆT NAM, (VINADES.,JSC)  Thiết kế bảo trì các website theo yêu cầu của khách hàng  Lập Trình Viên Công ty cổ phần nguồn mở việt nam (Vinades.,jsc)  Thiết kế, bảo trì các website theo yêu cầu của khách hàng, làm việc với HTML/CSS/JSFrontend (HTML/CSS)   CNTT - Phần mềm   Làm việc nhóm Thuyết trình Giải quyết vấn đề  </t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>lập trình viên thiết kế công ty cổ phần nguồn mở việt nam vinadesjsc thiết kế bảo trì các website theo yêu cầu của khách hàng lập trình viên công ty cổ phần nguồn mở việt nam vinadesjsc thiết kế bảo trì các website theo yêu cầu của khách hàng làm việc với htmlcssjsfrontend htmlcss cntt phần mềm làm việc nhóm thuyết trình giải quyết vấn đề</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>lập_trình_viên thiết_kế công_ty cổ_phần nguồn mở việt nam vinadesjsc thiết_kế bảo_trì các website theo yêu_cầu của khách_hàng lập_trình_viên công_ty cổ_phần nguồn mở việt nam vinadesjsc thiết_kế bảo_trì các website theo yêu_cầu của khách_hàng làm_việc với htmlcssjsfrontend htmlcss cntt phần_mềm làm_việc nhóm thuyết_trình giải_quyết vấn_đề</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>lập_trình_viên thiết_kế công_ty cổ_phần việt nam vinadesjsc thiết_kế bảo_trì website yêu_cầu khách_hàng lập_trình_viên công_ty cổ_phần việt nam vinadesjsc thiết_kế bảo_trì website yêu_cầu khách_hàng làm_việc htmlcssjsfrontend htmlcss cntt phần_mềm làm_việc thuyết_trình giải_quyết vấn_đề</t>
+          <t>lập_trình_viên thiết_kế công_ty cổ_phần việt nam vinadesjsc thiết_kế bảo_trì website yêu_cầu khách_hàng lập_trình_viên công_ty cổ_phần việt nam vinadesjsc thiết_kế bảo_trì website yêu_cầu khách_hàng làm_việc htmlcssjs frontend htmlcss cntt phần_mềm làm_việc thuyết_trình giải_quyết vấn_đề frontend htmlcss cntt phần_mềm làm_việc thuyết_trình giải_quyết vấn_đề</t>
         </is>
       </c>
     </row>
@@ -1011,22 +726,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lập Trình Viên fpt software đà nẵng  Nhiệm vụ: - Lên cấu hình, triển khai và bảo trì hệ thống mạng – máy tính, máy văn phòng, hệ thống tổng đài điện thoại, hệ thống Camera giám sát - Thiết lập và quản lý thống thống chấm công cho Công ty, quản lý database phần mềm chấm công - Quản lý hệ thống thông báo ca làm việc theo giờ, hệ thống báo động cho công ty - Quản lý, hỗ trợ sử dụng phần mềm MES cho các bộ phận trong nhà máy - Thực hiện các yêu cầu, đề xuất giải pháp công nghệ phục vụ công tác quản lý.NET/C#   Adobe After Effect   Hòa đồng Năng động Lập kế hoạch Làm việc nhóm  </t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>lập trình viên fpt software đà nẵng nhiệm vụ lên cấu hình triển khai và bảo trì hệ thống mạng – máy tính máy văn phòng hệ thống tổng đài điện thoại hệ thống camera giám sát thiết lập và quản lý thống thống chấm công cho công ty quản lý database phần mềm chấm công quản lý hệ thống thông báo ca làm việc theo giờ hệ thống báo động cho công ty quản lý hỗ trợ sử dụng phần mềm mes cho các bộ phận trong nhà máy thực hiện các yêu cầu đề xuất giải pháp công nghệ phục vụ công tác quản lýnetc adobe after effect hòa đồng năng động lập kế hoạch làm việc nhóm</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>lập_trình_viên fpt software đà_nẵng nhiệm_vụ lên cấu_hình triển_khai và bảo_trì hệ_thống mạng – máy_tính máy văn_phòng hệ_thống tổng_đài điện_thoại hệ_thống camera giám_sát thiết_lập và quản_lý thống thống chấm công cho công_ty quản_lý database phần_mềm chấm công quản_lý hệ_thống thông_báo ca làm_việc theo giờ hệ_thống báo_động cho công_ty quản_lý hỗ_trợ sử_dụng phần_mềm mes cho các bộ_phận trong nhà_máy thực_hiện các yêu_cầu đề_xuất giải_pháp công_nghệ phục_vụ công_tác quản lýnetc adobe after effect hòa đồng năng_động lập kế_hoạch làm_việc nhóm</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>lập_trình_viên fpt software đà_nẵng nhiệm_vụ cấu_hình triển_khai bảo_trì hệ_thống máy_tính máy văn_phòng hệ_thống tổng_đài điện_thoại hệ_thống camera giám_sát thiết_lập quản_lý thống thống chấm công_ty quản_lý database phần_mềm chấm quản_lý hệ_thống thông_báo ca làm_việc hệ_thống báo_động công_ty quản_lý hỗ_trợ sử_dụng phần_mềm mes bộ_phận nhà_máy thực_hiện yêu_cầu đề_xuất giải_pháp công_nghệ phục_vụ công_tác quản lýnetc adobe after effect hòa năng_động kế_hoạch làm_việc</t>
+          <t>lập_trình_viên fpt software đà_nẵng nhiệm_vụ cấu_hình triển_khai bảo_trì hệ_thống máy_tính máy văn_phòng hệ_thống tổng_đài điện_thoại hệ_thống camera giám_sát thiết_lập quản_lý thống thống chấm công_ty quản_lý database phần_mềm chấm quản_lý hệ_thống thông_báo ca làm_việc hệ_thống báo_động công_ty quản_lý hỗ_trợ sử_dụng phần_mềm mes bộ_phận nhà_máy thực_hiện yêu_cầu đề_xuất giải_pháp công_nghệ phục_vụ công_tác quản_lý netc adobe after effect hòa năng_động kế_hoạch làm_việc netc adobe after effect hòa năng_động kế_hoạch làm_việc</t>
         </is>
       </c>
     </row>
@@ -1041,22 +741,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lập Trình Viên FRONTEND(REACT JS) Công ty cổ phần Startup ITP  - Phát triển tính năng và fix bug theo sự hướng dẫn của trưởng nhóm - Chuyển đổi giao diện website hoàn chỉnh từ các file thiết kế .psd  LẬP TRÌNH VIÊN FRONT END React Js DỰ ÁN THAM GIA CÔNG TY ITP GROUP Dự án: Mạng xã hội  Người tham gia :4 Skill : PHP ,HTML,SCSS,React/Redux ,Jquery  Frontend (HTML/CSS)   Javascript    Làm việc nhóm Thuyết trình Giải quyết vấn đề</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>lập trình viên frontendreact js công ty cổ phần startup itp phát triển tính năng và fix bug theo sự hướng dẫn của trưởng nhóm chuyển đổi giao diện website hoàn chỉnh từ các file thiết kế psd lập trình viên front end react js dự án tham gia công ty itp group dự án mạng xã hội người tham gia 4 skill php htmlscssreactredux jquery frontend htmlcss javascript làm việc nhóm thuyết trình giải quyết vấn đề</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>lập_trình_viên frontendreact js công_ty cổ_phần startup itp phát_triển tính_năng và fix bug theo sự hướng_dẫn của trưởng nhóm chuyển_đổi giao_diện website hoàn_chỉnh từ các file thiết_kế psd lập_trình_viên front end react js dự_án tham_gia_công_ty itp group dự_án_mạng xã_hội người tham_gia 4 skill php htmlscssreactredux jquery frontend htmlcss javascript làm_việc nhóm thuyết_trình giải_quyết vấn_đề</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>lập_trình_viên frontendreact js công_ty cổ_phần startup itp phát_triển tính_năng fix bug hướng_dẫn trưởng chuyển_đổi giao_diện website hoàn_chỉnh file thiết_kế psd lập_trình_viên front end react js dự_án tham_gia_công_ty itp group dự_án_mạng xã_hội tham_gia skill php htmlscssreactredux jquery frontend htmlcss javascript làm_việc thuyết_trình giải_quyết vấn_đề</t>
+          <t>lập_trình_viên frontendreact js công_ty cổ_phần startup itp phát_triển tính_năng fix bug hướng_dẫn trưởng chuyển_đổi giao_diện website hoàn_chỉnh file thiết_kế psd lập_trình_viên front end react js dự_án tham_gia_công_ty itp group dự_án_mạng xã_hội tham_gia skill php htmlscssreactredux jquery frontend htmlcss javascript làm_việc thuyết_trình giải_quyết vấn_đề frontend htmlcss javascript làm_việc thuyết_trình giải_quyết vấn_đề</t>
         </is>
       </c>
     </row>
@@ -1071,22 +756,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Intern/Fresher Developer Công Ty TNHH Hybrid Technologies Việt Nam  - Tham gia vào dự án outsourcing cho khách hàng Nhật Bản - Cập nhật, phát triển các api cho web service triển khai với Laravel, Docker - Tham gia một phần phát triển giao diện sử dụng html/css/js, jQuery, Vuejs - Báo cáo review source code về coding standards, error handling, code comments &amp; decisionBackend   Javascript   Lập trình Mobile   CNTT - Phần mềm   PHP    Làm việc nhóm</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>internfresher developer công ty tnhh hybrid technologies việt nam tham gia vào dự án outsourcing cho khách hàng nhật bản cập nhật phát triển các api cho web service triển khai với laravel docker tham gia một phần phát triển giao diện sử dụng htmlcssjs jquery vuejs báo cáo review source code về coding standards error handling code comments decisionbackend javascript lập trình mobile cntt phần mềm php làm việc nhóm</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>internfresher developer công_ty_tnhh hybrid technologies việt nam tham_gia vào dự_án outsourcing cho khách_hàng nhật_bản cập_nhật phát_triển các api cho web service triển_khai với laravel docker tham_gia một phần phát_triển giao_diện sử_dụng htmlcssjs jquery vuejs báo_cáo review source code về coding standards error handling code comments decisionbackend javascript lập_trình mobile cntt phần_mềm php làm_việc nhóm</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>internfresher developer công_ty_tnhh hybrid technologies việt nam tham_gia dự_án outsourcing khách_hàng nhật_bản cập_nhật phát_triển api web service triển_khai laravel docker tham_gia phát_triển giao_diện sử_dụng htmlcssjs jquery vuejs báo_cáo review source code coding standards error handling code comments decisionbackend javascript lập_trình mobile cntt phần_mềm php làm_việc</t>
+          <t>internfresher developer công_ty_tnhh hybrid technologies việt nam tham_gia dự_án outsourcing khách_hàng nhật_bản cập_nhật phát_triển api web service triển_khai laravel docker tham_gia phát_triển giao_diện sử_dụng htmlcssjs jquery vuejs báo_cáo review source code coding standards error handling code comments decision backend javascript lập_trình mobile cntt phần_mềm php làm_việc backend javascript lập_trình mobile cntt phần_mềm php làm_việc</t>
         </is>
       </c>
     </row>
@@ -1101,22 +771,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Developer Dự án "Dự đoán sự cố động cơ máy bay"  - Thu thập và phân tích dữ liệu. - Xây dựng mô hình hồi quy dự báo hoạt động của động cơ. - Xây dựng mô hình Phân loại nhị phân để đánh giá hiệu suất - Xây dựng mô hình Phân loại đa lớp để đánh giá hiệu quả công việc. - Phân tích tình trạng động cơ, dự đoán thời gian hỏng hóc của động cơ trong tương lai.  Nhà phát triển máy học TMA Solution  - Thu thập dữ liệu từ hệ thống máy. -Phân tích dữ liệu. - Xây dựng mô hình học máy để đánh giá hoạt động của máy móc - Bảo trì dự đoán cho máy móc.  Python   Machine Learning   C/C++   </t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>developer dự án dự đoán sự cố động cơ máy bay thu thập và phân tích dữ liệu xây dựng mô hình hồi quy dự báo hoạt động của động cơ xây dựng mô hình phân loại nhị phân để đánh giá hiệu suất xây dựng mô hình phân loại đa lớp để đánh giá hiệu quả công việc phân tích tình trạng động cơ dự đoán thời gian hỏng hóc của động cơ trong tương lai nhà phát triển máy học tma solution thu thập dữ liệu từ hệ thống máy phân tích dữ liệu xây dựng mô hình học máy để đánh giá hoạt động của máy móc bảo trì dự đoán cho máy móc python machine learning cc</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>developer dự_án dự_đoán sự_cố động_cơ máy_bay thu_thập và phân_tích dữ_liệu xây_dựng mô_hình hồi quy dự_báo hoạt_động của động_cơ xây_dựng mô_hình phân_loại nhị_phân để đánh_giá hiệu_suất xây_dựng mô_hình phân_loại đa lớp để đánh_giá hiệu_quả công_việc phân_tích tình_trạng động_cơ dự_đoán thời_gian hỏng_hóc của động_cơ trong tương_lai nhà phát_triển máy học tma solution thu_thập dữ_liệu từ hệ_thống máy phân_tích dữ_liệu xây_dựng mô_hình_học máy để đánh_giá hoạt_động của máy_móc bảo_trì dự_đoán cho máy_móc python machine learning cc</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>developer dự_án dự_đoán sự_cố động_cơ máy_bay thu_thập phân_tích dữ_liệu xây_dựng mô_hình hồi dự_báo hoạt_động động_cơ xây_dựng mô_hình phân_loại nhị_phân đánh_giá hiệu_suất xây_dựng mô_hình phân_loại đa lớp đánh_giá hiệu_quả công_việc phân_tích tình_trạng động_cơ dự_đoán thời_gian hỏng_hóc động_cơ tương_lai phát_triển máy học tma solution thu_thập dữ_liệu hệ_thống máy phân_tích dữ_liệu xây_dựng mô_hình_học máy đánh_giá hoạt_động máy_móc bảo_trì dự_đoán máy_móc python machine learning cc</t>
+          <t>developer dự_án dự_đoán sự_cố động_cơ máy_bay thu_thập phân_tích dữ_liệu xây_dựng mô_hình hồi dự_báo hoạt_động động_cơ xây_dựng mô_hình phân_loại nhị_phân đánh_giá hiệu_suất xây_dựng mô_hình phân_loại đa lớp đánh_giá hiệu_quả công_việc phân_tích tình_trạng động_cơ dự_đoán thời_gian hỏng_hóc động_cơ tương_lai phát_triển máy học tma solution thu_thập dữ_liệu hệ_thống máy phân_tích dữ_liệu xây_dựng mô_hình_học máy đánh_giá hoạt_động máy_móc bảo_trì dự_đoán máy_móc python machine learning cc python machine learning cc</t>
         </is>
       </c>
     </row>
@@ -1131,22 +786,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marketing &amp; Design Công ty Thiết Thạch  Thiết kế các sản phẩm hình ảnh, poster, ấn phẩm truyền thông , Lên nội dung, đăng bài trên website và trang page facebook của công ty Quản trị page và website , hỗ trợ tư vấn giải đáp thắc mắc tại page   Front End Developer Minerva Technology Solutions  • Xây dựng admin website  for SCB BankFrontend (HTML/CSS)   Javascript   Adobe Photoshop    Làm việc nhóm Quản lý thời gian Hòa đồng </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>marketing design công ty thiết thạch thiết kế các sản phẩm hình ảnh poster ấn phẩm truyền thông lên nội dung đăng bài trên website và trang page facebook của công ty quản trị page và website hỗ trợ tư vấn giải đáp thắc mắc tại page front end developer minerva technology solutions • xây dựng admin website for scb bankfrontend htmlcss javascript adobe photoshop làm việc nhóm quản lý thời gian hòa đồng</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>marketing design công_ty thiết thạch_thiết_kế các sản_phẩm hình_ảnh poster ấn_phẩm truyền_thông lên nội_dung đăng bài trên website và trang page facebook của công_ty quản_trị page và website hỗ_trợ tư_vấn giải_đáp thắc_mắc tại page front end developer minerva technology solutions • xây_dựng admin website for scb bankfrontend htmlcss javascript adobe photoshop làm_việc nhóm quản_lý thời_gian hòa đồng</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>marketing design công_ty thạch_thiết_kế sản_phẩm hình_ảnh poster ấn_phẩm truyền_thông nội_dung đăng website trang page facebook công_ty quản_trị page website hỗ_trợ tư_vấn giải_đáp thắc_mắc page front end developer minerva technology solutions xây_dựng admin website for scb bankfrontend htmlcss javascript adobe photoshop làm_việc quản_lý thời_gian hòa</t>
+          <t>marketing design công_ty thạch_thiết_kế sản_phẩm hình_ảnh poster ấn_phẩm truyền_thông nội_dung đăng website trang page facebook công_ty quản_trị page website hỗ_trợ tư_vấn giải_đáp thắc_mắc page front end developer minerva technology solutions xây_dựng admin website for scb bank frontend htmlcss javascript adobe photoshop làm_việc quản_lý thời_gian hòa frontend htmlcss javascript adobe photoshop làm_việc quản_lý thời_gian hòa</t>
         </is>
       </c>
     </row>
@@ -1161,22 +801,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lập trình viên Front-End  - Phát triển chính trong dự án Ứng dụng HTS bằng React Native (phát triển triển khai xây dựng) - Phát triển chính trong Web Admin HTS sử dụng Angular (phát triển triển khai build)  Renovation Technology Lập trình viên Front-End  Các dự án dành cho nhà phát triển -end đã tham gia - Phát triển web sử dụng CMS Angular (Quản lý người dùng khách hàng) - Phát triển ứng dụng Mobile bằng React Native (hiển thị dữ liệu từ máy POS trên biểu đồ và nhân viên bàn &amp; quản lý lịch trình) - Phát triển ứng dụng Di động bằng Ionic Tìm hiểu cách giải quyết vấn đề nhanh chóng và rõ ràng.    Frontend (HTML/CSS)   Javascript   </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>lập trình viên frontend phát triển chính trong dự án ứng dụng hts bằng react native phát triển triển khai xây dựng phát triển chính trong web admin hts sử dụng angular phát triển triển khai build renovation technology lập trình viên frontend các dự án dành cho nhà phát triển end đã tham gia phát triển web sử dụng cms angular quản lý người dùng khách hàng phát triển ứng dụng mobile bằng react native hiển thị dữ liệu từ máy pos trên biểu đồ và nhân viên bàn quản lý lịch trình phát triển ứng dụng di động bằng ionic tìm hiểu cách giải quyết vấn đề nhanh chóng và rõ ràng frontend htmlcss javascript</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>lập_trình_viên frontend phát_triển chính trong dự_án ứng_dụng hts bằng react native phát_triển triển_khai xây_dựng phát_triển chính trong web admin hts sử_dụng angular phát_triển triển_khai build renovation technology lập_trình_viên frontend các dự_án dành cho nhà phát_triển end đã tham_gia phát_triển web sử_dụng cms angular quản_lý người dùng khách_hàng phát_triển ứng_dụng mobile bằng react native hiển_thị dữ_liệu từ máy pos trên biểu_đồ và nhân_viên bàn quản_lý_lịch_trình phát_triển ứng_dụng di_động bằng ionic tìm_hiểu cách giải_quyết vấn_đề nhanh_chóng và rõ_ràng frontend htmlcss javascript</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>lập_trình_viên frontend phát_triển dự_án ứng_dụng hts react native phát_triển triển_khai xây_dựng phát_triển web admin hts sử_dụng angular phát_triển triển_khai build renovation technology lập_trình_viên frontend dự_án phát_triển end tham_gia phát_triển web sử_dụng cms angular quản_lý khách_hàng phát_triển ứng_dụng mobile react native hiển_thị dữ_liệu máy pos biểu_đồ nhân_viên bàn quản_lý_lịch_trình phát_triển ứng_dụng di_động ionic tìm_hiểu giải_quyết vấn_đề nhanh_chóng rõ_ràng frontend htmlcss javascript</t>
+          <t>lập_trình_viên frontend phát_triển dự_án ứng_dụng hts react native phát_triển triển_khai xây_dựng phát_triển web admin hts sử_dụng angular phát_triển triển_khai build renovation technology lập_trình_viên frontend dự_án phát_triển end tham_gia phát_triển web sử_dụng cms angular quản_lý khách_hàng phát_triển ứng_dụng mobile react native hiển_thị dữ_liệu máy pos biểu_đồ nhân_viên bàn quản_lý_lịch_trình phát_triển ứng_dụng di_động ionic tìm_hiểu giải_quyết vấn_đề nhanh_chóng rõ_ràng frontend htmlcss javascript frontend htmlcss javascript</t>
         </is>
       </c>
     </row>
@@ -1191,22 +816,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lập Trình Viên  Game Space shooter Công việc: viết code, kiểm lỗi, thiết kế màn chơi sử dụng: Unity, visual studio code ngôn ngữ: C# link: Trong website của tôi, phần project  Lập Trình Viên  Website shop bán hàng Công việc: viết code, kiểm lỗi, thiết kế giao diện sử dụng: Visual studio, xampp ngôn ngữ: PHP, HTML, CSS .NET/C#   PHP      Frontend (HTML/CSS)   Giao tiếp Làm việc nhóm  </t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>lập trình viên game space shooter công việc viết code kiểm lỗi thiết kế màn chơi sử dụng unity visual studio code ngôn ngữ c link trong website của tôi phần project lập trình viên website shop bán hàng công việc viết code kiểm lỗi thiết kế giao diện sử dụng visual studio xampp ngôn ngữ php html css netc php frontend htmlcss giao tiếp làm việc nhóm</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>lập_trình_viên game space shooter công_việc viết code kiểm lỗi thiết_kế màn chơi sử_dụng unity visual studio_code ngôn_ngữ c link trong website của tôi phần project lập_trình_viên website shop bán hàng công_việc viết code kiểm lỗi thiết_kế giao_diện sử_dụng visual studio_xampp ngôn_ngữ php html css netc php frontend htmlcss giao_tiếp làm_việc nhóm</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>lập_trình_viên game space shooter công_việc viết code kiểm lỗi thiết_kế màn sử_dụng unity visual studio_code ngôn_ngữ c link website project lập_trình_viên website shop hàng công_việc viết code kiểm lỗi thiết_kế giao_diện sử_dụng visual studio_xampp ngôn_ngữ php html css netc php frontend htmlcss giao_tiếp làm_việc</t>
+          <t>lập_trình_viên game space shooter công_việc viết code kiểm lỗi thiết_kế màn sử_dụng unity visual studio_code ngôn_ngữ c link website project lập_trình_viên website shop hàng công_việc viết code kiểm lỗi thiết_kế giao_diện sử_dụng visual studio_xampp ngôn_ngữ php html css netc php frontend htmlcss giao_tiếp làm_việc netc php frontend htmlcss giao_tiếp làm_việc</t>
         </is>
       </c>
     </row>
@@ -1221,22 +831,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Freelancer Chain Store Management, Fujinet Company  Tạo trang quản lý sản phẩm dựa trên trang quản lý nhân viên được tạo sẵn bằng cách sử dụng Webform, Json, JavaScript, Razor, LinQ, Sql Server. Fresher, FPT Software, Ho Chi Minh August 2021 Javascript Sql Server C#</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>freelancer chain store management fujinet company tạo trang quản lý sản phẩm dựa trên trang quản lý nhân viên được tạo sẵn bằng cách sử dụng webform json javascript razor linq sql server fresher fpt software ho chi minh august 2021 javascript sql server c</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>freelancer chain store management fujinet company tạo trang quản_lý sản_phẩm dựa trên trang quản_lý nhân_viên được tạo sẵn bằng cách sử_dụng webform json javascript razor linq sql server fresher fpt software ho chi minh august 2021 javascript sql server c</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>freelancer chain store management fujinet company trang quản_lý sản_phẩm dựa trang quản_lý nhân_viên sẵn sử_dụng webform json javascript razor linq sql server fresher fpt software ho minh august javascript sql server c</t>
+          <t>freelancer chain store management fujinet company trang quản_lý sản_phẩm dựa trang quản_lý nhân_viên sẵn sử_dụng webform json javascript razor linq sql server fresher fpt software ho minh august javascript sql server c javascript sql server c</t>
         </is>
       </c>
     </row>
@@ -1251,22 +846,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lập Trình Viên, TeamL Công ty cổ phần Lifetek  Quản lý team lập trình (5 người), lập trình hệ thống quản lý bán hàng  Lập Trình Viên Công ty TNHH phần mềm 2NF  Làm việc qua nhiều team khác nhau, chỉ làm các dự án cho khách hàng Nhật Bản: mạng xã hội, sàn tiền ảo, ....Backend   SQL   .NET/C#   Frontend (HTML/CSS)   PHP   Frontend (HTML/CSS)   SQL   Oracle   IT Support   Quản lý thời gian Làm việc nhóm Hòa đồng Phân tích   </t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>lập trình viên teaml công ty cổ phần lifetek quản lý team lập trình 5 người lập trình hệ thống quản lý bán hàng lập trình viên công ty tnhh phần mềm 2nf làm việc qua nhiều team khác nhau chỉ làm các dự án cho khách hàng nhật bản mạng xã hội sàn tiền ảo backend sql netc frontend htmlcss php frontend htmlcss sql oracle it support quản lý thời gian làm việc nhóm hòa đồng phân tích</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>lập_trình_viên teaml công_ty cổ_phần lifetek quản_lý team lập_trình 5 người lập_trình hệ_thống quản_lý bán hàng lập_trình_viên công_ty_tnhh phần_mềm 2nf làm_việc qua nhiều team khác nhau chỉ làm các dự_án cho khách_hàng nhật bản mạng xã_hội sàn tiền ảo backend sql netc frontend htmlcss php frontend htmlcss sql oracle it support quản_lý thời_gian làm_việc nhóm hòa đồng_phân_tích</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>lập_trình_viên teaml công_ty cổ_phần lifetek quản_lý team lập_trình lập_trình hệ_thống quản_lý hàng lập_trình_viên công_ty_tnhh phần_mềm làm_việc team dự_án khách_hàng nhật xã_hội sàn tiền ảo backend sql netc frontend htmlcss php frontend htmlcss sql oracle it support quản_lý thời_gian làm_việc hòa đồng_phân_tích</t>
+          <t>lập_trình_viên teaml công_ty cổ_phần lifetek quản_lý team lập_trình lập_trình hệ_thống quản_lý hàng lập_trình_viên công_ty_tnhh phần_mềm làm_việc team dự_án khách_hàng nhật xã_hội sàn tiền ảo backend sql netc frontend htmlcss php frontend htmlcss sql oracle it support quản_lý thời_gian làm_việc hòa đồng_phân_tích backend sql netc frontend htmlcss php frontend htmlcss sql oracle it support quản_lý thời_gian làm_việc hòa đồng_phân_tích</t>
         </is>
       </c>
     </row>
@@ -1281,22 +861,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Developer Công ty TNHH Mytour Việt Nam  - Lập trình và phát triển các chức năng cho sản phẩm product MyTour của công ty  GOLF Developer Công ty Cổ phần PPC  - Lập trình và phát triển các chức năng cho sản phẩm product iGOLF của công ty  Java   Javascript   .NET/C#    </t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>developer công ty tnhh mytour việt nam lập trình và phát triển các chức năng cho sản phẩm product mytour của công ty golf developer công ty cổ phần ppc lập trình và phát triển các chức năng cho sản phẩm product igolf của công ty java javascript netc</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>developer công_ty_tnhh mytour việt_nam lập_trình và phát_triển các chức_năng cho sản_phẩm product mytour của công_ty golf developer công_ty cổ_phần ppc lập_trình và phát_triển các chức_năng cho sản_phẩm product igolf của công_ty java javascript netc</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>developer công_ty_tnhh mytour việt_nam lập_trình phát_triển chức_năng sản_phẩm product mytour công_ty golf developer công_ty cổ_phần ppc lập_trình phát_triển chức_năng sản_phẩm product igolf công_ty java javascript netc</t>
+          <t>developer công_ty_tnhh mytour việt_nam lập_trình phát_triển chức_năng sản_phẩm product mytour công_ty golf developer công_ty cổ_phần ppc lập_trình phát_triển chức_năng sản_phẩm product igolf công_ty java javascript netc java javascript netc</t>
         </is>
       </c>
     </row>
@@ -1311,22 +876,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hệ thống quản lý tài nguyên - Phát triển tính năng tính lại hạn ngạch người dùng - Viết unittest - Chạy thử nghiệm tích hợp Phần mềm sử dụng: Ngôn ngữ và khuôn khổ:Khung Python và Django, HTML,CSS,Javascript   Công cụ Inject UI Trách nhiệm: - Phát triển các tính năng dựa trên yêu cầu và tài liệu thiết kế của KH - Sửa lỗi, cập nhật tính năng dựa trên phản hồi của Khách hàng. - Chạy các trường hợp thử nghiệm và lấy bằng chứng Ngôn ngữ và công nghệ sử dụng: C#, .NET và WPF, HTML,CSS,Javascript, VisualStudio 2019,SVN   Python   Frontend (HTML/CSS)   .NET/C#   Javascript    Giải quyết vấn đề Làm việc nhóm Hòa đồng Phân tích </t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>hệ thống quản lý tài nguyên phát triển tính năng tính lại hạn ngạch người dùng viết unittest chạy thử nghiệm tích hợp phần mềm sử dụng ngôn ngữ và khuôn khổkhung python và django htmlcssjavascript công cụ inject ui trách nhiệm phát triển các tính năng dựa trên yêu cầu và tài liệu thiết kế của kh sửa lỗi cập nhật tính năng dựa trên phản hồi của khách hàng chạy các trường hợp thử nghiệm và lấy bằng chứng ngôn ngữ và công nghệ sử dụng c net và wpf htmlcssjavascript visualstudio 2019svn python frontend htmlcss netc javascript giải quyết vấn đề làm việc nhóm hòa đồng phân tích</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>hệ_thống quản_lý_tài_nguyên_phát_triển tính_năng tính lại hạn_ngạch người dùng viết unittest chạy thử_nghiệm tích_hợp_phần_mềm sử_dụng ngôn_ngữ và khuôn khổkhung python và django htmlcssjavascript công_cụ inject ui trách_nhiệm phát_triển các tính_năng dựa trên yêu_cầu và tài_liệu thiết_kế của kh sửa lỗi cập_nhật tính_năng dựa trên phản_hồi của khách_hàng chạy các trường_hợp thử_nghiệm và lấy bằng_chứng ngôn_ngữ và công_nghệ sử_dụng c net và wpf htmlcssjavascript visualstudio 2019svn python frontend htmlcss netc javascript giải_quyết vấn_đề làm_việc nhóm hòa đồng_phân_tích</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>hệ_thống quản_lý_tài_nguyên_phát_triển tính_năng hạn_ngạch viết unittest chạy thử_nghiệm tích_hợp_phần_mềm sử_dụng ngôn_ngữ khuôn khổkhung python django htmlcssjavascript công_cụ inject ui trách_nhiệm phát_triển tính_năng dựa yêu_cầu tài_liệu thiết_kế kh sửa lỗi cập_nhật tính_năng dựa phản_hồi khách_hàng chạy trường_hợp thử_nghiệm bằng_chứng ngôn_ngữ công_nghệ sử_dụng c net wpf htmlcssjavascript visualstudio python frontend htmlcss netc javascript giải_quyết vấn_đề làm_việc hòa đồng_phân_tích</t>
+          <t>hệ_thống quản_lý_tài_nguyên_phát_triển tính_năng hạn_ngạch viết unittest chạy thử_nghiệm tích_hợp_phần_mềm sử_dụng ngôn_ngữ khuôn khổkhung python django htmlcssjavascript công_cụ inject ui trách_nhiệm phát_triển tính_năng dựa yêu_cầu tài_liệu thiết_kế kh sửa lỗi cập_nhật tính_năng dựa phản_hồi khách_hàng chạy trường_hợp thử_nghiệm bằng_chứng ngôn_ngữ công_nghệ sử_dụng c net wpf htmlcssjavascript visualstudio python frontend htmlcss netc javascript giải_quyết vấn_đề làm_việc hòa đồng_phân_tích python frontend htmlcss netc javascript giải_quyết vấn_đề làm_việc hòa đồng_phân_tích</t>
         </is>
       </c>
     </row>
@@ -1341,22 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Full Stack Developer, Tester  Doanh nghiệp Đức Phát  - Loại dự án Product - Mô tả dự án Website quản lý bán hàng điện nước + Phân tích dữ liệu + Viết api, Back-end,Front-end Thiết kế giao diện dashboard  + Database PostgreSQL, Frontend HTML, CSS, JavaScript, Jquery, Java Spring Boot QA/Test   Full-stack   </t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>full stack developer tester doanh nghiệp đức phát loại dự án product mô tả dự án website quản lý bán hàng điện nước phân tích dữ liệu viết api backendfrontend thiết kế giao diện dashboard database postgresql frontend html css javascript jquery java spring boot qatest fullstack</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>full stack developer tester doanh_nghiệp đức phát loại dự_án product mô_tả dự_án website quản_lý bán hàng điện nước phân_tích dữ_liệu viết api backendfrontend thiết_kế giao_diện dashboard database postgresql frontend html css javascript jquery java spring boot qatest fullstack</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>full stack developer tester doanh_nghiệp đức phát dự_án product mô_tả dự_án website quản_lý hàng điện phân_tích dữ_liệu viết api backendfrontend thiết_kế giao_diện dashboard database postgresql frontend html css javascript jquery java spring boot qatest fullstack</t>
+          <t>full stack developer tester doanh_nghiệp đức phát dự_án product mô_tả dự_án website quản_lý hàng điện phân_tích dữ_liệu viết api backendfrontend thiết_kế giao_diện dashboard database postgresql frontend html css javascript jquery java spring boot qatest fullstack qatest fullstack</t>
         </is>
       </c>
     </row>
@@ -1371,22 +906,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nhân Viên PHP Wordpress CÔNG TY TNHH - MONA MEDIA   - Phân tích dữ liệu cho khách hàng - Là lập trình viên wordpress php  - Quản trị website viết nội dung chuẩn - Hỗ trợ khách hàng - Các dự án đã thực hiện tại công ty mona media   Nhân Viên Lập Trình Quản Lý Website OH BỆNH VIỆN ĐA KHOA BỎ TÚI Tìm hiểu và code thêm trang chức năng Dich vụ sức khoẻ trong website - Lập trình website fontend &amp; backend - Thực hiện các landing page website trên - Làm freelance các dự án ngoài về fontend và backend - Có và đang tiềm hiểu thêm reactjs và đang thực hiện projects tại công ty  PHP   Frontend (HTML/CSS)   Quản Trị Hệ Thống    </t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>nhân viên php wordpress công ty tnhh mona media phân tích dữ liệu cho khách hàng là lập trình viên wordpress php quản trị website viết nội dung chuẩn hỗ trợ khách hàng các dự án đã thực hiện tại công ty mona media nhân viên lập trình quản lý website oh bệnh viện đa khoa bỏ túi tìm hiểu và code thêm trang chức năng dich vụ sức khoẻ trong website lập trình website fontend backend thực hiện các landing page website trên làm freelance các dự án ngoài về fontend và backend có và đang tiềm hiểu thêm reactjs và đang thực hiện projects tại công ty php frontend htmlcss quản trị hệ thống</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>nhân_viên php wordpress công_ty_tnhh mona media phân_tích dữ_liệu cho khách_hàng là lập_trình_viên wordpress php quản_trị website viết nội_dung chuẩn hỗ_trợ khách_hàng các dự_án đã thực_hiện_tại công_ty mona media nhân_viên lập_trình quản_lý website oh bệnh_viện đa_khoa bỏ_túi tìm_hiểu và code thêm trang chức_năng dich vụ sức_khoẻ trong website lập_trình website fontend backend thực_hiện các landing page website trên làm freelance các dự_án ngoài về fontend và backend có và đang tiềm hiểu thêm reactjs và đang thực_hiện projects tại công_ty php frontend htmlcss quản_trị hệ_thống</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>nhân_viên php wordpress công_ty_tnhh mona media phân_tích dữ_liệu khách_hàng lập_trình_viên wordpress php quản_trị website viết nội_dung hỗ_trợ khách_hàng dự_án thực_hiện_tại công_ty mona media nhân_viên lập_trình quản_lý website oh bệnh_viện đa_khoa bỏ_túi tìm_hiểu code trang chức_năng dich vụ sức_khoẻ website lập_trình website fontend backend thực_hiện landing page website freelance dự_án fontend backend tiềm reactjs thực_hiện projects công_ty php frontend htmlcss quản_trị hệ_thống</t>
+          <t>nhân_viên php wordpress công_ty_tnhh mona media phân_tích dữ_liệu khách_hàng lập_trình_viên wordpress php quản_trị website viết nội_dung hỗ_trợ khách_hàng dự_án thực_hiện_tại công_ty mona media nhân_viên lập_trình quản_lý website oh bệnh_viện đa_khoa bỏ_túi tìm_hiểu code trang chức_năng dich vụ sức_khoẻ website lập_trình website fontend backend thực_hiện landing page website freelance dự_án fontend backend tiềm reactjs thực_hiện projects công_ty php frontend htmlcss quản_trị hệ_thống php frontend htmlcss quản_trị hệ_thống</t>
         </is>
       </c>
     </row>
@@ -1401,22 +921,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">NET Developer FPT Software  Tôi đã làm việc trên Utop, một nền tảng thanh toán không dùng tiền mặt cho phép người tiêu dùng tích lũy và đổi điểm tại các cửa hàng và nhà hàng. Tôi chịu trách nhiệm tích hợp Zalo vào hệ thống chăm sóc khách hàng của Utop.  NET Developer NashTech  web quản lý tài sản của công ty  xây dựng các thành phần giao diện người dùng quan trọng (React) và tối ưu hóa phần phụ trợ API REST (.NET)  của chúng tôi Scrum và (Git).   .NET/C#   ASP.NET   UI/UX   CNTT - Phần mềm   Thiết Kế    Quản lý thời gian Làm việc nhóm Lập kế hoạch </t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>net developer fpt software tôi đã làm việc trên utop một nền tảng thanh toán không dùng tiền mặt cho phép người tiêu dùng tích lũy và đổi điểm tại các cửa hàng và nhà hàng tôi chịu trách nhiệm tích hợp zalo vào hệ thống chăm sóc khách hàng của utop net developer nashtech web quản lý tài sản của công ty xây dựng các thành phần giao diện người dùng quan trọng react và tối ưu hóa phần phụ trợ api rest net của chúng tôi scrum và git netc aspnet uiux cntt phần mềm thiết kế quản lý thời gian làm việc nhóm lập kế hoạch</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>net developer fpt software tôi đã làm_việc trên utop một nền_tảng thanh_toán không dùng tiền_mặt cho phép người tiêu_dùng tích_lũy và đổi điểm tại các cửa_hàng và nhà_hàng tôi chịu trách_nhiệm tích_hợp zalo vào hệ_thống chăm_sóc khách_hàng của utop net developer nashtech web quản_lý_tài_sản của công_ty xây_dựng các thành_phần giao_diện người dùng quan_trọng react và tối_ưu_hóa phần_phụ_trợ api rest net của chúng_tôi scrum và git netc aspnet uiux cntt phần_mềm thiết_kế quản_lý thời_gian làm_việc nhóm lập kế_hoạch</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>net developer fpt software làm_việc utop nền_tảng thanh_toán tiền_mặt phép tiêu_dùng tích_lũy cửa_hàng nhà_hàng trách_nhiệm tích_hợp zalo hệ_thống chăm_sóc khách_hàng utop net developer nashtech web quản_lý_tài_sản công_ty xây_dựng thành_phần giao_diện quan_trọng react tối_ưu_hóa phần_phụ_trợ api rest net chúng_tôi scrum git netc aspnet uiux cntt phần_mềm thiết_kế quản_lý thời_gian làm_việc kế_hoạch</t>
+          <t>net developer fpt software làm_việc utop nền_tảng thanh_toán tiền_mặt phép tiêu_dùng tích_lũy cửa_hàng nhà_hàng trách_nhiệm tích_hợp zalo hệ_thống chăm_sóc khách_hàng utop net developer nashtech web quản_lý_tài_sản công_ty xây_dựng thành_phần giao_diện quan_trọng react tối_ưu_hóa phần_phụ_trợ api rest net chúng_tôi scrum git netc aspnet uiux cntt phần_mềm thiết_kế quản_lý thời_gian làm_việc kế_hoạch netc aspnet uiux cntt phần_mềm thiết_kế quản_lý thời_gian làm_việc kế_hoạch</t>
         </is>
       </c>
     </row>
@@ -1431,22 +936,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Android Fresher GMO-Z.com RUNSYSTEM JSC  Ứng dụng DownloadManager (Tôi): Ứng dụng viết bằng Java Android, cho phép tải đồng thời các bài hát (.mp3) và video (.mp4) từ ZingMp3, Nhaccuatui, dailymotion.  Android Developer ASEANTECH Team  Ứng dụng Photo2Text (Team 2 – Team lead): Ứng dụng viết bằng Java Android, sử dụng thư viện OCR, TextRecognition API, cho phép chụp ảnh tài liệu, nhận diện chữ, chuyển sang file .pdf. Android Java Triển Khai Phần Mềm  Giao tiếp Làm việc nhóm</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>android fresher gmozcom runsystem jsc ứng dụng downloadmanager tôi ứng dụng viết bằng java android cho phép tải đồng thời các bài hát mp3 và video mp4 từ zingmp3 nhaccuatui dailymotion android developer aseantech team ứng dụng photo2text team 2 – team lead ứng dụng viết bằng java android sử dụng thư viện ocr textrecognition api cho phép chụp ảnh tài liệu nhận diện chữ chuyển sang file pdf android java triển khai phần mềm giao tiếp làm việc nhóm</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>android fresher gmozcom runsystem jsc ứng_dụng downloadmanager tôi ứng_dụng viết bằng java android cho phép tải đồng_thời các bài hát mp3 và video mp4 từ zingmp3 nhaccuatui dailymotion android developer aseantech team ứng_dụng photo2text team 2 – team lead ứng_dụng viết bằng java android sử_dụng thư_viện ocr textrecognition api cho phép chụp ảnh tài_liệu nhận_diện chữ chuyển sang file pdf android java triển_khai phần_mềm giao_tiếp làm_việc nhóm</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>android fresher gmozcom runsystem jsc ứng_dụng downloadmanager ứng_dụng viết java android phép tải đồng_thời hát video nhaccuatui dailymotion android developer aseantech team ứng_dụng team team lead ứng_dụng viết java android sử_dụng thư_viện ocr textrecognition api phép chụp ảnh tài_liệu nhận_diện chữ file pdf android java triển_khai phần_mềm giao_tiếp làm_việc</t>
+          <t>android fresher gmozcom runsystem jsc ứng_dụng downloadmanager ứng_dụng viết java android phép tải đồng_thời hát video nhaccuatui dailymotion android developer aseantech team ứng_dụng team team lead ứng_dụng viết java android sử_dụng thư_viện ocr textrecognition api phép chụp ảnh tài_liệu nhận_diện chữ file pdf android java triển_khai phần_mềm giao_tiếp làm_việc android java triển_khai phần_mềm giao_tiếp làm_việc</t>
         </is>
       </c>
     </row>
@@ -1461,22 +951,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Head Of Information Technology Department BAO AN TECHNIQUE SERVICE JOINT STOCK COMPANY  Quản lý hệ thống thiết bị IT, thiết bị mạng, máy tính, phần mềm công ty Thiết kế website công ty và SEO website Nâng cấp và phát triển phần mềm ERP Phát triển các phần mềm dự án cho khách hàng nhà máy như hệ thống Scada, Andon, Quản lý sản xuất - MES  Software Developer MARITIME INFORMATIC AND TECHNOLLOGY JOINT STOCK COMPANY  Lập trình hệ thống phần mềm quản trị ERP trên nền .NET và MSSQL, thiết kế website theo nhu cầu khách hàng  ASP.NET   .NET/C#  Full-stack   Quản Lý Dự Án (IT)   Triển Khai Phần Mềm   Kỹ Sư Cầu Nối   IT Support   Quản Trị Hệ Thống  </t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>head of information technology department bao an technique service joint stock company quản lý hệ thống thiết bị it thiết bị mạng máy tính phần mềm công ty thiết kế website công ty và seo website nâng cấp và phát triển phần mềm erp phát triển các phần mềm dự án cho khách hàng nhà máy như hệ thống scada andon quản lý sản xuất mes software developer maritime informatic and technollogy joint stock company lập trình hệ thống phần mềm quản trị erp trên nền net và mssql thiết kế website theo nhu cầu khách hàng aspnet netc fullstack quản lý dự án it triển khai phần mềm kỹ sư cầu nối it support quản trị hệ thống</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>head of information technology department bao an technique service joint stock company quản_lý hệ_thống_thiết_bị it thiết_bị mạng máy_tính phần_mềm công_ty thiết_kế website công_ty và seo website nâng_cấp và phát_triển phần_mềm erp phát_triển các phần_mềm dự_án cho khách_hàng nhà_máy như hệ_thống scada andon quản_lý sản_xuất mes software developer maritime informatic and technollogy joint stock company lập_trình hệ_thống phần_mềm quản_trị erp trên nền net và mssql thiết_kế website theo nhu_cầu khách_hàng aspnet netc fullstack quản_lý dự_án it triển_khai phần_mềm kỹ_sư cầu_nối it support quản_trị hệ_thống</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>head of information technology department an technique service joint stock company quản_lý hệ_thống_thiết_bị it thiết_bị máy_tính phần_mềm công_ty thiết_kế website công_ty seo website nâng_cấp phát_triển phần_mềm erp phát_triển phần_mềm dự_án khách_hàng nhà_máy hệ_thống scada andon quản_lý sản_xuất mes software developer maritime informatic and technollogy joint stock company lập_trình hệ_thống phần_mềm quản_trị erp net mssql thiết_kế website nhu_cầu khách_hàng aspnet netc fullstack quản_lý dự_án it triển_khai phần_mềm kỹ_sư cầu_nối it support quản_trị hệ_thống</t>
+          <t>head of information technology department an technique service joint stock company quản_lý hệ_thống_thiết_bị it thiết_bị máy_tính phần_mềm công_ty thiết_kế website công_ty seo website nâng_cấp phát_triển phần_mềm erp phát_triển phần_mềm dự_án khách_hàng nhà_máy hệ_thống scada andon quản_lý sản_xuất mes software developer maritime informatic and technollogy joint stock company lập_trình hệ_thống phần_mềm quản_trị erp net mssql thiết_kế website nhu_cầu khách_hàng aspnet netc fullstack quản_lý dự_án it triển_khai phần_mềm kỹ_sư cầu_nối it support quản_trị hệ_thống aspnet netc fullstack quản_lý dự_án it triển_khai phần_mềm kỹ_sư cầu_nối it support quản_trị hệ_thống</t>
         </is>
       </c>
     </row>
@@ -1491,22 +966,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fresher Javascript fpt software  Thiết kế web bằng framework AngularFrontend (HTML/CSS)   SQL   Javascript   Hòa đồng Năng động Lập kế hoạch Làm việc nhóm   </t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>fresher javascript fpt software thiết kế web bằng framework angularfrontend htmlcss sql javascript hòa đồng năng động lập kế hoạch làm việc nhóm</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>fresher javascript fpt software thiết_kế web bằng framework angularfrontend htmlcss sql javascript hòa đồng năng_động lập kế_hoạch làm_việc nhóm</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>fresher javascript fpt software thiết_kế web framework angularfrontend htmlcss sql javascript hòa năng_động kế_hoạch làm_việc</t>
+          <t>fresher javascript fpt software thiết_kế web framework angular frontend htmlcss sql javascript hòa năng_động kế_hoạch làm_việc frontend htmlcss sql javascript hòa năng_động kế_hoạch làm_việc</t>
         </is>
       </c>
     </row>
@@ -1521,22 +981,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Lập Trình Python Freelancer  Trực tiếp làm lập trình viên xây dựng các phần mềm cho khách hàngPython   C/C++   Ruby   SQL    Thuyết trình Làm việc nhóm Giải quyết vấn đề Quản lý thời gian Hòa đồng</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>lập trình python freelancer trực tiếp làm lập trình viên xây dựng các phần mềm cho khách hàngpython cc ruby sql thuyết trình làm việc nhóm giải quyết vấn đề quản lý thời gian hòa đồng</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>lập_trình python freelancer trực_tiếp làm lập_trình_viên xây_dựng các phần_mềm cho khách hàngpython cc ruby sql thuyết_trình làm_việc nhóm giải_quyết vấn_đề quản_lý thời_gian hòa đồng</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>lập_trình python freelancer trực_tiếp lập_trình_viên xây_dựng phần_mềm hàngpython cc ruby sql thuyết_trình làm_việc giải_quyết vấn_đề quản_lý thời_gian hòa</t>
+          <t>lập_trình python freelancer trực_tiếp lập_trình_viên xây_dựng phần_mềm khách_hàng python cc ruby sql thuyết_trình làm_việc giải_quyết vấn_đề quản_lý thời_gian hòa python cc ruby sql thuyết_trình làm_việc giải_quyết vấn_đề quản_lý thời_gian hòa</t>
         </is>
       </c>
     </row>
@@ -1551,22 +996,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">CÔNG TY CỔ PHẦN CODEGYM VIỆT NAM NodeJS Hiện tại NodeJS, ReactJS Developer Website cho thuê nhà  NodeJS Developer CÔNG TY CỔ PHẦN CODEGYM VIỆT NAM Công nghệ ReactJS, Redux, ExpressJS, MongoDB,Tailwind CSS, RestfulAPI,JWT, Agile, Scrum, Firebase thiết kế ui  Hiện tại CÔNG TY CỔ PHẦN CODEGYM VIỆT NAM NodeJS Developer Dự án Blog Công nghệ HTML, CSS, JS, Bootstrap, NodeJS, MySQL  thiết kế giao diện, Thiết kế CSDL   NodeJS   Javascript  </t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>công ty cổ phần codegym việt nam nodejs hiện tại nodejs reactjs developer website cho thuê nhà nodejs developer công ty cổ phần codegym việt nam công nghệ reactjs redux expressjs mongodbtailwind css restfulapijwt agile scrum firebase thiết kế ui hiện tại công ty cổ phần codegym việt nam nodejs developer dự án blog công nghệ html css js bootstrap nodejs mysql thiết kế giao diện thiết kế csdl nodejs javascript</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>công_ty cổ_phần codegym việt nam nodejs hiện_tại nodejs reactjs developer website cho thuê nhà nodejs developer công_ty cổ_phần codegym việt nam công_nghệ reactjs redux expressjs mongodbtailwind css restfulapijwt agile scrum firebase thiết_kế ui hiện_tại công_ty cổ_phần codegym việt nam nodejs developer dự_án blog công_nghệ html css js bootstrap nodejs mysql thiết_kế giao_diện thiết_kế csdl nodejs javascript</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>công_ty cổ_phần codegym việt nam nodejs hiện_tại nodejs reactjs developer website thuê nodejs developer công_ty cổ_phần codegym việt nam công_nghệ reactjs redux expressjs mongodbtailwind css restfulapijwt agile scrum firebase thiết_kế ui hiện_tại công_ty cổ_phần codegym việt nam nodejs developer dự_án blog công_nghệ html css js bootstrap nodejs mysql thiết_kế giao_diện thiết_kế csdl nodejs javascript</t>
+          <t>công_ty cổ_phần codegym việt nam nodejs hiện_tại nodejs reactjs developer website thuê nodejs developer công_ty cổ_phần codegym việt nam công_nghệ reactjs redux expressjs mongodbtailwind css restfulapijwt agile scrum firebase thiết_kế ui hiện_tại công_ty cổ_phần codegym việt nam nodejs developer dự_án blog công_nghệ html css js bootstrap nodejs mysql thiết_kế giao_diện thiết_kế csdl nodejs javascript nodejs javascript</t>
         </is>
       </c>
     </row>
@@ -1581,22 +1011,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>XÂY DỰNG WEBSITE BÁN HÀNG THƯƠNG MẠI ĐIỆN TỬ - ReactjsRedux - Biết cách xây dựng trang web thương mại điện tử  XÂY DỰNG HỆ THỐNG QUẢN LÝ ADMIN  - Xây dựng website bên client bằng Ant Design Scss React Js Redux Toolkit - Biết cách xây dựng hệ thống quản lý Big Data  XÂY DỰNG HỆ THỐNG NGÂN HÀNG SUMIKA  - Xây dựng website bên client bằng Html Scss Reactjs Redux - Biết cách xử lý nghiệp vụ cũng như xây hệ thống vận hành ngân hàngReactjs Redux</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>xây dựng website bán hàng thương mại điện tử reactjsredux biết cách xây dựng trang web thương mại điện tử xây dựng hệ thống quản lý admin xây dựng website bên client bằng ant design scss react js redux toolkit biết cách xây dựng hệ thống quản lý big data xây dựng hệ thống ngân hàng sumika xây dựng website bên client bằng html scss reactjs redux biết cách xử lý nghiệp vụ cũng như xây hệ thống vận hành ngân hàngreactjs redux</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>xây_dựng website bán hàng thương_mại điện_tử reactjsredux biết cách xây_dựng trang_web thương_mại điện_tử xây_dựng hệ_thống quản_lý admin xây_dựng website bên client bằng ant design scss react js redux toolkit biết cách xây_dựng hệ_thống quản_lý big data xây_dựng hệ_thống ngân_hàng sumika xây_dựng website bên client bằng html scss reactjs redux biết cách xử_lý nghiệp_vụ cũng như xây hệ_thống vận_hành ngân hàngreactjs redux</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>xây_dựng website hàng thương_mại điện_tử reactjsredux xây_dựng trang_web thương_mại điện_tử xây_dựng hệ_thống quản_lý admin xây_dựng website client ant design scss react js redux toolkit xây_dựng hệ_thống quản_lý big data xây_dựng hệ_thống ngân_hàng sumika xây_dựng website client html scss reactjs redux xử_lý nghiệp_vụ xây hệ_thống vận_hành ngân hàngreactjs redux</t>
+          <t>xây_dựng website hàng thương_mại điện_tử reactjsredux xây_dựng trang_web thương_mại điện_tử xây_dựng hệ_thống quản_lý admin xây_dựng website client ant design scss react js redux toolkit xây_dựng hệ_thống quản_lý big data xây_dựng hệ_thống ngân_hàng sumika xây_dựng website client html scss reactjs redux xử_lý nghiệp_vụ xây hệ_thống vận_hành ngân_hàng reactjs redux reactjs redux</t>
         </is>
       </c>
     </row>
@@ -1611,22 +1026,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">IT Suppervisor TEKCOM COMPANY  + Chịu trách nhiệm cấu hình mạng (Cisco Router and Switch, Cyberoam Firewall) và quản lý window server (AD, DHCP, DNS) + Tiếp nhận yêu cầu từ các bộ phận khác và phát triển Ứng dụng (Desktop và Web app) bằng C# (Winform, ASP) và cơ sở dữ liệu MSSQL (Backup and Restore, Stored Procedure, Function, Trigger,...)   IT Operator And Software Developer EVATECH GROUP  + Chúng tôi chịu trách nhiệm vận hành hệ thống sản xuất và kho vận hành, hoạt động hoàn hảo, thông suốt 24/7 + Tiếp nhận yêu cầu từ các bộ phận khác và phát triển Ứng dụng (Desktop và Web app) bằng C# (Winform, ASP) và cơ sở dữ liệu MSSQL. Triển Khai Phần Mềm   Quản Trị Hệ Thống   Quản Trị Mạng  </t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>it suppervisor tekcom company chịu trách nhiệm cấu hình mạng cisco router and switch cyberoam firewall và quản lý window server ad dhcp dns tiếp nhận yêu cầu từ các bộ phận khác và phát triển ứng dụng desktop và web app bằng c winform asp và cơ sở dữ liệu mssql backup and restore stored procedure function trigger it operator and software developer evatech group chúng tôi chịu trách nhiệm vận hành hệ thống sản xuất và kho vận hành hoạt động hoàn hảo thông suốt 247 tiếp nhận yêu cầu từ các bộ phận khác và phát triển ứng dụng desktop và web app bằng c winform asp và cơ sở dữ liệu mssql triển khai phần mềm quản trị hệ thống quản trị mạng</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>it suppervisor tekcom company chịu trách_nhiệm cấu_hình mạng cisco router and switch cyberoam firewall và quản_lý window server ad dhcp dns tiếp_nhận yêu_cầu từ các bộ_phận khác và phát_triển ứng_dụng desktop và web app bằng c winform asp và cơ_sở dữ_liệu mssql backup and restore stored procedure function trigger it operator and software developer evatech group chúng_tôi chịu trách_nhiệm vận_hành hệ_thống sản_xuất và kho vận_hành hoạt_động hoàn_hảo thông_suốt 247 tiếp_nhận yêu_cầu từ các bộ_phận khác và phát_triển ứng_dụng desktop và web app bằng c winform asp và cơ_sở dữ_liệu mssql triển_khai phần_mềm quản_trị hệ_thống quản_trị mạng</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>it suppervisor tekcom company trách_nhiệm cấu_hình cisco router and switch cyberoam firewall quản_lý window server ad dhcp dns tiếp_nhận yêu_cầu bộ_phận phát_triển ứng_dụng desktop web app c winform asp cơ_sở dữ_liệu mssql backup and restore stored procedure function trigger it operator and software developer evatech group chúng_tôi trách_nhiệm vận_hành hệ_thống sản_xuất kho vận_hành hoạt_động hoàn_hảo thông_suốt tiếp_nhận yêu_cầu bộ_phận phát_triển ứng_dụng desktop web app c winform asp cơ_sở dữ_liệu mssql triển_khai phần_mềm quản_trị hệ_thống quản_trị</t>
+          <t>it suppervisor tekcom company trách_nhiệm cấu_hình cisco router and switch cyberoam firewall quản_lý window server ad dhcp dns tiếp_nhận yêu_cầu bộ_phận phát_triển ứng_dụng desktop web app c winform asp cơ_sở dữ_liệu mssql backup and restore stored procedure function trigger it operator and software developer evatech group chúng_tôi trách_nhiệm vận_hành hệ_thống sản_xuất kho vận_hành hoạt_động hoàn_hảo thông_suốt tiếp_nhận yêu_cầu bộ_phận phát_triển ứng_dụng desktop web app c winform asp cơ_sở dữ_liệu mssql triển_khai phần_mềm quản_trị hệ_thống quản_trị triển_khai phần_mềm quản_trị hệ_thống quản_trị</t>
         </is>
       </c>
     </row>
@@ -1641,22 +1041,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">HỌC VẤN FPT Aptech FPT Aptech  Lập trình viên Front End Phát triển website &amp; quản lý cơ sở dữ liệu.  Frontend (HTML/CSS)  </t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>học vấn fpt aptech fpt aptech lập trình viên front end phát triển website quản lý cơ sở dữ liệu frontend htmlcss</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>học_vấn fpt aptech fpt aptech lập_trình_viên front end phát_triển website quản_lý cơ_sở dữ_liệu frontend htmlcss</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>học_vấn fpt aptech fpt aptech lập_trình_viên front end phát_triển website quản_lý cơ_sở dữ_liệu frontend htmlcss</t>
+          <t>học_vấn fpt aptech fpt aptech lập_trình_viên front end phát_triển website quản_lý cơ_sở dữ_liệu frontend htmlcss frontend htmlcss</t>
         </is>
       </c>
     </row>
@@ -1671,22 +1056,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Học Viên CYBERSOFT ACADEMY  Back End - NodeJs - Learn backend nodeJs  ReactJs Developer  Tham gia xây dựng cms cabx.Frontend (HTML/CSS)   Javascript   Backend   NodeJS   SQL    Làm việc nhóm Phân tích Quản lý thời gian  </t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>học viên cybersoft academy back end nodejs learn backend nodejs reactjs developer tham gia xây dựng cms cabxfrontend htmlcss javascript backend nodejs sql làm việc nhóm phân tích quản lý thời gian</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>học_viên cybersoft academy back end nodejs learn backend nodejs reactjs developer tham_gia xây_dựng cms cabxfrontend htmlcss javascript backend nodejs sql làm_việc nhóm phân_tích quản_lý thời_gian</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>học_viên cybersoft academy back end nodejs learn backend nodejs reactjs developer tham_gia xây_dựng cms cabxfrontend htmlcss javascript backend nodejs sql làm_việc phân_tích quản_lý thời_gian</t>
+          <t>học_viên cybersoft academy back end nodejs learn backend nodejs reactjs developer tham_gia xây_dựng cms cabx frontend htmlcss javascript backend nodejs sql làm_việc phân_tích quản_lý thời_gian frontend htmlcss javascript backend nodejs sql làm_việc phân_tích quản_lý thời_gian</t>
         </is>
       </c>
     </row>
@@ -1701,22 +1071,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Nhân viên phát triển bán thời gian Công Ty TNHH DivineShop  - Bảo trì website, Sửa lỗi và viết tính năng mới theo yêu cầu của khách hàng. - Hiểu Opencart Cms và Fuel Framework, cronjob, git, redis - Làm việc với cổng thanh toán Việt Nam NgânLượng, Bảo Kim , VTC, Momo  Full Time Developer Staff Dato Solution Co.LTD  - Sửa lỗi, bảo trì hệ thống do công ty trước viết. -Sử dụng PHP để viết framework  -Thiết kế cơ sở dữ liệu cho hệ thống lớn.Tùy chỉnh truy vấn sql để tối ưu hóa hiệu suất, sử dụng SVN .NET/C#   Quản Trị Mạng   Javascript   C/C++  , Php</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>nhân viên phát triển bán thời gian công ty tnhh divineshop bảo trì website sửa lỗi và viết tính năng mới theo yêu cầu của khách hàng hiểu opencart cms và fuel framework cronjob git redis làm việc với cổng thanh toán việt nam ngânlượng bảo kim vtc momo full time developer staff dato solution coltd sửa lỗi bảo trì hệ thống do công ty trước viết sử dụng php để viết framework thiết kế cơ sở dữ liệu cho hệ thống lớntùy chỉnh truy vấn sql để tối ưu hóa hiệu suất sử dụng svn netc quản trị mạng javascript cc php</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>nhân_viên phát_triển bán thời_gian công_ty_tnhh divineshop bảo_trì website sửa lỗi và viết tính_năng mới theo yêu_cầu của khách_hàng hiểu opencart cms và fuel framework cronjob git redis làm_việc với cổng thanh_toán việt nam ngânlượng bảo kim vtc momo full time developer staff dato solution coltd sửa lỗi bảo_trì hệ_thống do công_ty trước viết sử_dụng php để viết framework thiết_kế cơ_sở dữ_liệu cho hệ_thống lớntùy chỉnh truy vấn sql để tối_ưu_hóa hiệu_suất sử_dụng svn netc quản_trị mạng javascript cc php</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>nhân_viên phát_triển thời_gian công_ty_tnhh divineshop bảo_trì website sửa lỗi viết tính_năng yêu_cầu khách_hàng opencart cms fuel framework cronjob git redis làm_việc cổng thanh_toán việt nam ngânlượng kim vtc momo full time developer staff dato solution coltd sửa lỗi bảo_trì hệ_thống công_ty viết sử_dụng php viết framework thiết_kế cơ_sở dữ_liệu hệ_thống lớntùy chỉnh truy sql tối_ưu_hóa hiệu_suất sử_dụng svn netc quản_trị javascript cc php</t>
+          <t>nhân_viên phát_triển thời_gian công_ty_tnhh divineshop bảo_trì website sửa lỗi viết tính_năng yêu_cầu khách_hàng opencart cms fuel framework cronjob git redis làm_việc cổng thanh_toán việt nam ngânlượng kim vtc momo full time developer staff dato solution coltd sửa lỗi bảo_trì hệ_thống công_ty viết sử_dụng php viết framework thiết_kế cơ_sở dữ_liệu hệ_thống lớntùy chỉnh truy sql tối_ưu_hóa hiệu_suất sử_dụng svn netc quản_trị javascript cc php netc quản_trị javascript cc php</t>
         </is>
       </c>
     </row>
@@ -1731,22 +1086,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nhân Viên Kỹ Thuật. BigAppTech  Chịu trách nhiệm cập nhập các phần mềm quản lý, 3 phần mềm chính mà công ty đang kinh doanh, Spa, Gym, quản lý kho.  Nhân Viên It BỆNH VIỆN QUẬN TÂN BÌNH   - Hổ trợ người dùng sử dụng phần mềm quản lý bệnh viện - Sửa chữa phần mềm khi phát sinh lỗi. - Lập trình website cho bệnh viện. - Lập trình ứng dụng, code tool hổ trợ công việc cho bệnh viện.(trích lọc dữ liệu,báo cáo, ...)  Quản Lý Sản Phẩm   Quản Lý Dự Án (IT)   Android   C/C++   ASP.NET   SQL   Phần Cứng Máy Tính/Điện Thoại   Oracle   IT Support   Quản Trị Mạng   .NET/C#    Thuyết trình Giao tiếp Làm việc nhóm Năng động Quản lý thời gian Giải quyết vấn đề Đàm phán Lãnh Đạo Phân tích Hòa đồng Xây dựng quan hệ Lập kế hoạch </t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>nhân viên kỹ thuật bigapptech chịu trách nhiệm cập nhập các phần mềm quản lý 3 phần mềm chính mà công ty đang kinh doanh spa gym quản lý kho nhân viên it bệnh viện quận tân bình hổ trợ người dùng sử dụng phần mềm quản lý bệnh viện sửa chữa phần mềm khi phát sinh lỗi lập trình website cho bệnh viện lập trình ứng dụng code tool hổ trợ công việc cho bệnh việntrích lọc dữ liệubáo cáo quản lý sản phẩm quản lý dự án it android cc aspnet sql phần cứng máy tínhđiện thoại oracle it support quản trị mạng netc thuyết trình giao tiếp làm việc nhóm năng động quản lý thời gian giải quyết vấn đề đàm phán lãnh đạo phân tích hòa đồng xây dựng quan hệ lập kế hoạch</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>nhân_viên kỹ_thuật bigapptech chịu trách_nhiệm cập nhập các phần_mềm quản_lý 3 phần_mềm chính mà công_ty đang kinh_doanh spa gym quản_lý kho nhân_viên it bệnh_viện quận tân_bình hổ trợ người dùng sử_dụng phần_mềm quản_lý bệnh_viện sửa_chữa phần_mềm khi phát_sinh lỗi lập_trình website cho bệnh_viện lập_trình ứng_dụng code tool hổ trợ công_việc cho bệnh việntrích lọc dữ liệubáo cáo quản_lý sản_phẩm quản_lý dự_án it android cc aspnet sql phần_cứng máy tínhđiện thoại oracle it support quản_trị mạng netc thuyết_trình giao_tiếp làm_việc nhóm năng_động quản_lý thời_gian giải_quyết vấn_đề đàm_phán lãnh_đạo phân_tích hòa đồng xây_dựng quan_hệ lập kế_hoạch</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>nhân_viên kỹ_thuật bigapptech trách_nhiệm cập nhập phần_mềm quản_lý phần_mềm công_ty kinh_doanh spa gym quản_lý kho nhân_viên it bệnh_viện tân_bình hổ sử_dụng phần_mềm quản_lý bệnh_viện sửa_chữa phần_mềm phát_sinh lỗi lập_trình website bệnh_viện lập_trình ứng_dụng code tool hổ công_việc bệnh việntrích lọc liệubáo cáo quản_lý sản_phẩm quản_lý dự_án it android cc aspnet sql phần_cứng máy tínhđiện thoại oracle it support quản_trị netc thuyết_trình giao_tiếp làm_việc năng_động quản_lý thời_gian giải_quyết vấn_đề đàm_phán lãnh_đạo phân_tích hòa xây_dựng quan_hệ kế_hoạch</t>
+          <t>nhân_viên kỹ_thuật bigapptech trách_nhiệm cập nhập phần_mềm quản_lý phần_mềm công_ty kinh_doanh spa gym quản_lý kho nhân_viên it bệnh_viện tân_bình hổ sử_dụng phần_mềm quản_lý bệnh_viện sửa_chữa phần_mềm phát_sinh lỗi lập_trình website bệnh_viện lập_trình ứng_dụng code tool hổ công_việc bệnh việntrích lọc liệubáo cáo quản_lý sản_phẩm quản_lý dự_án it android cc aspnet sql phần_cứng máy tínhđiện thoại oracle it support quản_trị netc thuyết_trình giao_tiếp làm_việc năng_động quản_lý thời_gian giải_quyết vấn_đề đàm_phán lãnh_đạo phân_tích hòa xây_dựng quan_hệ kế_hoạch quản_lý sản_phẩm quản_lý dự_án it android cc aspnet sql phần_cứng máy tínhđiện thoại oracle it support quản_trị netc thuyết_trình giao_tiếp làm_việc năng_động quản_lý thời_gian giải_quyết vấn_đề đàm_phán lãnh_đạo phân_tích hòa xây_dựng quan_hệ kế_hoạch</t>
         </is>
       </c>
     </row>
@@ -1761,22 +1101,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nhân Viên Triển Khai Phần Mềm Công ty cổ phần và đầu tư công nghệ Intecom  Lập trình ứng dụng phần mềm khai thác cảng Smart TOS sử dụng: C#, entity framework, linq, sqlserver, devexpress.  Exe corp  Lập trình viên thiết kế giao diện cho website sử dụng html, css, javascript.   .NET/C#   Triển Khai Phần Mềm   Frontend (HTML/CSS)   QA/Test   SQL    Làm việc nhóm Phân tích Giải quyết vấn đề Thuyết trình  </t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>nhân viên triển khai phần mềm công ty cổ phần và đầu tư công nghệ intecom lập trình ứng dụng phần mềm khai thác cảng smart tos sử dụng c entity framework linq sqlserver devexpress exe corp lập trình viên thiết kế giao diện cho website sử dụng html css javascript netc triển khai phần mềm frontend htmlcss qatest sql làm việc nhóm phân tích giải quyết vấn đề thuyết trình</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>nhân_viên triển_khai phần_mềm công_ty cổ_phần và đầu_tư công_nghệ intecom lập_trình ứng_dụng phần_mềm khai_thác cảng smart tos sử_dụng c entity framework linq sqlserver devexpress exe corp lập_trình_viên thiết_kế giao_diện cho website sử_dụng html css javascript netc triển_khai phần_mềm frontend htmlcss qatest sql làm_việc nhóm phân_tích giải_quyết vấn_đề thuyết_trình</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>nhân_viên triển_khai phần_mềm công_ty cổ_phần đầu_tư công_nghệ intecom lập_trình ứng_dụng phần_mềm khai_thác cảng smart tos sử_dụng c entity framework linq sqlserver devexpress exe corp lập_trình_viên thiết_kế giao_diện website sử_dụng html css javascript netc triển_khai phần_mềm frontend htmlcss qatest sql làm_việc phân_tích giải_quyết vấn_đề thuyết_trình</t>
+          <t>nhân_viên triển_khai phần_mềm công_ty cổ_phần đầu_tư công_nghệ intecom lập_trình ứng_dụng phần_mềm khai_thác cảng smart tos sử_dụng c entity framework linq sqlserver devexpress exe corp lập_trình_viên thiết_kế giao_diện website sử_dụng html css javascript netc triển_khai phần_mềm frontend htmlcss qatest sql làm_việc phân_tích giải_quyết vấn_đề thuyết_trình netc triển_khai phần_mềm frontend htmlcss qatest sql làm_việc phân_tích giải_quyết vấn_đề thuyết_trình</t>
         </is>
       </c>
     </row>
@@ -1791,22 +1116,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lập Trình PHP Educa group Query ApI, FIX BUG, thiết kế DB,  Laravel Developper Công ty Cổ phần Công nghệ GVN tham gia phát triển website dùng Laravel FrameworkJava   SQL   PHP   Javascript   Frontend (HTML/CSS)    Giao tiếp Giải quyết vấn đề Hòa đồng  </t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>lập trình php educa group query api fix bug thiết kế db laravel developper công ty cổ phần công nghệ gvn tham gia phát triển website dùng laravel frameworkjava sql php javascript frontend htmlcss giao tiếp giải quyết vấn đề hòa đồng</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>lập_trình php educa group query api fix bug thiết_kế db laravel developper công_ty cổ_phần công_nghệ gvn tham_gia phát_triển website dùng laravel frameworkjava sql php javascript frontend htmlcss giao_tiếp giải_quyết vấn_đề hòa đồng</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>lập_trình php educa group query api fix bug thiết_kế db laravel developper công_ty cổ_phần công_nghệ gvn tham_gia phát_triển website laravel frameworkjava sql php javascript frontend htmlcss giao_tiếp giải_quyết vấn_đề hòa</t>
+          <t>lập_trình php educa group query api fix bug thiết_kế db laravel developper công_ty cổ_phần công_nghệ gvn tham_gia phát_triển website laravel framework java sql php javascript frontend htmlcss giao_tiếp giải_quyết vấn_đề hòa java sql php javascript frontend htmlcss giao_tiếp giải_quyết vấn_đề hòa</t>
         </is>
       </c>
     </row>
@@ -1821,22 +1131,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Thực Tập JAVA Developer VNPT   - Tìm hiểu về lập trình web Java, Spring Boot, Angular, - Thiết kế sơ đồ hệ thống cho project thiết kế website bán vé xem  - Có kiến thức cơ bản về Java Core - Có kiến thức về OOP Java - Đã tìm hiểu về Java String, Đa luồng, Java JDBC, Java Servlet Java Collections - Hoàn thành web bán hàng kết hợp Java Spring Boot + Angular, MySQL database  PHP DEVELOPER  - Hoàn thành web api bán hàng kết hợp Laravel + Vuejs, cơ sở dữ liệu MySQL ( có hướng dẫn) - Tham gia phát triển web quản lý thiết bị y tế Java   Javascript   Chăm Sóc Khách Hàng   Kế Toán Tổng Hợp</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>thực tập java developer vnpt tìm hiểu về lập trình web java spring boot angular thiết kế sơ đồ hệ thống cho project thiết kế website bán vé xem có kiến thức cơ bản về java core có kiến thức về oop java đã tìm hiểu về java string đa luồng java jdbc java servlet java collections hoàn thành web bán hàng kết hợp java spring boot angular mysql database php developer hoàn thành web api bán hàng kết hợp laravel vuejs cơ sở dữ liệu mysql có hướng dẫn tham gia phát triển web quản lý thiết bị y tế java javascript chăm sóc khách hàng kế toán tổng hợp</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>thực_tập java developer vnpt tìm_hiểu về lập_trình web java spring boot angular thiết_kế sơ_đồ hệ_thống cho project thiết_kế website bán vé xem có kiến_thức cơ_bản về java core có kiến_thức về oop java đã tìm_hiểu về java string đa_luồng java jdbc java servlet java collections hoàn_thành web bán hàng kết_hợp java spring boot angular mysql database php developer hoàn_thành web api bán hàng kết_hợp laravel vuejs cơ_sở dữ_liệu mysql có hướng_dẫn tham_gia phát_triển web quản_lý thiết_bị y_tế java javascript chăm_sóc khách_hàng kế_toán tổng_hợp</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>thực_tập java developer vnpt tìm_hiểu lập_trình web java spring boot angular thiết_kế sơ_đồ hệ_thống project thiết_kế website vé kiến_thức cơ_bản java core kiến_thức oop java tìm_hiểu java string đa_luồng java jdbc java servlet java collections hoàn_thành web hàng kết_hợp java spring boot angular mysql database php developer hoàn_thành web api hàng kết_hợp laravel vuejs cơ_sở dữ_liệu mysql hướng_dẫn tham_gia phát_triển web quản_lý thiết_bị y_tế java javascript chăm_sóc khách_hàng kế_toán tổng_hợp</t>
+          <t>thực_tập java developer vnpt tìm_hiểu lập_trình web java spring boot angular thiết_kế sơ_đồ hệ_thống project thiết_kế website vé kiến_thức cơ_bản java core kiến_thức oop java tìm_hiểu java string đa_luồng java jdbc java servlet java collections hoàn_thành web hàng kết_hợp java spring boot angular mysql database php developer hoàn_thành web api hàng kết_hợp laravel vuejs cơ_sở dữ_liệu mysql hướng_dẫn tham_gia phát_triển web quản_lý thiết_bị y_tế java javascript chăm_sóc khách_hàng kế_toán tổng_hợp java javascript chăm_sóc khách_hàng kế_toán tổng_hợp</t>
         </is>
       </c>
     </row>
@@ -1851,22 +1146,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kỹ Thuật Viên Và Lập Trình Viên Công ty CP phần mềm kế toán thuế Việt Nam(VMSoft)  - Hỗ trợ lập trình và kiểm thử dự án thực tế, Thiết kế giao diện - Phát triển chức năng Công nghệ sử dụng MVC, Sql Server Xây dựng dự án cá nhân Phần mềm nhà hàng vừa và nhỏ  Công nghệ sử dụng Winform, Entity framework, Linq, Sql ServerPHP   Frontend (HTML/CSS)  </t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>kỹ thuật viên và lập trình viên công ty cp phần mềm kế toán thuế việt namvmsoft hỗ trợ lập trình và kiểm thử dự án thực tế thiết kế giao diện phát triển chức năng công nghệ sử dụng mvc sql server xây dựng dự án cá nhân phần mềm nhà hàng vừa và nhỏ công nghệ sử dụng winform entity framework linq sql serverphp frontend htmlcss</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>kỹ_thuật_viên và lập_trình_viên công_ty_cp phần_mềm kế_toán thuế việt namvmsoft hỗ_trợ lập_trình và kiểm_thử dự_án thực_tế thiết_kế giao_diện phát_triển chức_năng công_nghệ sử_dụng mvc sql server xây_dựng dự_án cá_nhân phần_mềm nhà_hàng vừa và nhỏ công_nghệ sử_dụng winform entity framework linq sql serverphp frontend htmlcss</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>kỹ_thuật_viên lập_trình_viên công_ty_cp phần_mềm kế_toán thuế việt namvmsoft hỗ_trợ lập_trình kiểm_thử dự_án thực_tế thiết_kế giao_diện phát_triển chức_năng công_nghệ sử_dụng mvc sql server xây_dựng dự_án cá_nhân phần_mềm nhà_hàng công_nghệ sử_dụng winform entity framework linq sql serverphp frontend htmlcss</t>
+          <t>kỹ_thuật_viên lập_trình_viên công_ty_cp phần_mềm kế_toán thuế việt namvmsoft hỗ_trợ lập_trình kiểm_thử dự_án thực_tế thiết_kế giao_diện phát_triển chức_năng công_nghệ sử_dụng mvc sql server xây_dựng dự_án cá_nhân phần_mềm nhà_hàng công_nghệ sử_dụng winform entity framework linq sql server php frontend htmlcss php frontend htmlcss</t>
         </is>
       </c>
     </row>
@@ -1881,22 +1161,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fresher UI/UX Công ty TNHH Rikkeisoft  Trong quá trình học tập về designing web interface theo nhu cầu của khách hàng cũng như những việc làm liên quan đến designing ui/ux  Intern UI / UX vnEdu  Chuyên làm về các layout, landing page, sản phẩm web cho các trường học, công cụ học tập  Thiết Kế Sản Phẩm   UI/UX   Frontend (HTML/CSS)  </t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>fresher uiux công ty tnhh rikkeisoft trong quá trình học tập về designing web interface theo nhu cầu của khách hàng cũng như những việc làm liên quan đến designing uiux intern ui ux vnedu chuyên làm về các layout landing page sản phẩm web cho các trường học công cụ học tập thiết kế sản phẩm uiux frontend htmlcss</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>fresher uiux công_ty_tnhh rikkeisoft trong quá_trình học_tập về designing web interface theo nhu_cầu của khách_hàng cũng như những việc_làm liên_quan đến designing uiux intern ui ux vnedu chuyên làm về các layout landing page sản_phẩm web cho các trường_học công_cụ học_tập thiết_kế sản_phẩm uiux frontend htmlcss</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>fresher uiux công_ty_tnhh rikkeisoft quá_trình học_tập designing web interface nhu_cầu khách_hàng việc_làm liên_quan designing uiux intern ui ux vnedu chuyên layout landing page sản_phẩm web trường_học công_cụ học_tập thiết_kế sản_phẩm uiux frontend htmlcss</t>
+          <t>fresher uiux công_ty_tnhh rikkeisoft quá_trình học_tập designing web interface nhu_cầu khách_hàng việc_làm liên_quan designing uiux intern ui ux vnedu chuyên layout landing page sản_phẩm web trường_học công_cụ học_tập thiết_kế sản_phẩm uiux frontend htmlcss thiết_kế sản_phẩm uiux frontend htmlcss</t>
         </is>
       </c>
     </row>
@@ -1911,22 +1176,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thực Tập Sinh CôngtyADM  - Tìm hiểu và viết các ứng dụng android có tích hợp chức năng thanh toán của Google trên Android studio với kotlin. - Trong quá trình thực tập có nhận được đánh giá tích cực của anh quản lý.  Lập Trình Viên FmMusic  - Mô tả ứng dụng Ứng dụng nghe nhạc online và ofﬂine. - Công nhệ sử dụng  Android   NodeJS  </t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>thực tập sinh côngtyadm tìm hiểu và viết các ứng dụng android có tích hợp chức năng thanh toán của google trên android studio với kotlin trong quá trình thực tập có nhận được đánh giá tích cực của anh quản lý lập trình viên fmmusic mô tả ứng dụng ứng dụng nghe nhạc online và ofﬂine công nhệ sử dụng android nodejs</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>thực_tập_sinh côngtyadm tìm_hiểu và viết các ứng_dụng android có tích_hợp chức_năng thanh_toán của google trên android studio với kotlin trong quá_trình thực_tập có nhận được đánh_giá tích_cực của anh quản_lý lập_trình_viên fmmusic mô_tả ứng_dụng ứng_dụng nghe nhạc online và ofﬂine công nhệ sử_dụng android nodejs</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>thực_tập_sinh côngtyadm tìm_hiểu viết ứng_dụng android tích_hợp chức_năng thanh_toán google android studio kotlin quá_trình thực_tập đánh_giá tích_cực quản_lý lập_trình_viên fmmusic mô_tả ứng_dụng ứng_dụng nhạc online ofﬂine nhệ sử_dụng android nodejs</t>
+          <t>thực_tập_sinh côngtyadm tìm_hiểu viết ứng_dụng android tích_hợp chức_năng thanh_toán google android studio kotlin quá_trình thực_tập đánh_giá tích_cực quản_lý lập_trình_viên fmmusic mô_tả ứng_dụng ứng_dụng nhạc online ofﬂine nhệ sử_dụng android nodejs android nodejs</t>
         </is>
       </c>
     </row>
@@ -1941,22 +1191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Technical Leader, Developer Tafico  ▪ Phân tích tài liệu yêu cầu người dùng  ▪ Thiết kế cơ sở dữ liệu sử dụng Spring Data JPA ▪ Code backend và hỗ trợ cho các thành viên khác  ▪ Spring Rest API, Spring Data JPA, Spring Sercurity và MariaDB Frontend  ▪ ReactJS, React, Servlet,  Struts , Hibernate 3 và MySql  Technical Leader Tafico – Hitachi Vantara Customer  Tái cấu trúc và cập nhật cấu trúc của dự án  Viết mã, test và đào tạo Java, Jpa, ireport, hibersap và Swing cho một số thành viên   Triển Khai Phần Mềm   Java   PHP   .NET/C#   SQL   Data Analytics   C/C++   Thiết Kế 2D   An Ninh Mạng   </t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>technical leader developer tafico ▪ phân tích tài liệu yêu cầu người dùng ▪ thiết kế cơ sở dữ liệu sử dụng spring data jpa ▪ code backend và hỗ trợ cho các thành viên khác ▪ spring rest api spring data jpa spring sercurity và mariadb frontend ▪ reactjs react servlet struts hibernate 3 và mysql technical leader tafico – hitachi vantara customer tái cấu trúc và cập nhật cấu trúc của dự án viết mã test và đào tạo java jpa ireport hibersap và swing cho một số thành viên triển khai phần mềm java php netc sql data analytics cc thiết kế 2d an ninh mạng</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>technical leader developer tafico ▪ phân_tích tài_liệu yêu_cầu người dùng ▪ thiết_kế cơ_sở dữ_liệu sử_dụng spring data jpa ▪ code backend và hỗ_trợ cho các thành_viên khác ▪ spring rest api spring data jpa spring sercurity và mariadb frontend ▪ reactjs react servlet struts hibernate 3 và mysql technical leader tafico – hitachi vantara customer tái_cấu_trúc và cập_nhật cấu_trúc của dự_án viết mã test và đào_tạo java jpa ireport hibersap và swing cho một_số thành_viên triển_khai phần_mềm java php netc sql data analytics cc thiết_kế 2d an_ninh mạng</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>technical leader developer tafico phân_tích tài_liệu yêu_cầu thiết_kế cơ_sở dữ_liệu sử_dụng spring data jpa code backend hỗ_trợ thành_viên spring rest api spring data jpa spring sercurity mariadb frontend reactjs react servlet struts hibernate mysql technical leader tafico hitachi vantara customer tái_cấu_trúc cập_nhật cấu_trúc dự_án viết mã test đào_tạo java jpa ireport hibersap swing một_số thành_viên triển_khai phần_mềm java php netc sql data analytics cc thiết_kế an_ninh</t>
+          <t>technical leader developer tafico phân_tích tài_liệu yêu_cầu thiết_kế cơ_sở dữ_liệu sử_dụng spring data jpa code backend hỗ_trợ thành_viên spring rest api spring data jpa spring sercurity mariadb frontend reactjs react servlet struts hibernate mysql technical leader tafico hitachi vantara customer tái_cấu_trúc cập_nhật cấu_trúc dự_án viết mã test đào_tạo java jpa ireport hibersap swing một_số thành_viên triển_khai phần_mềm java php netc sql data analytics cc thiết_kế an_ninh triển_khai phần_mềm java php netc sql data analytics cc thiết_kế an_ninh</t>
         </is>
       </c>
     </row>
@@ -1971,22 +1206,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Công ty Octa Lập trình viên frontend và backend  Tham gia phát triển sản phẩm về thương mai điện tử Thảo luận với đội ngũ Backend về thiết kế APIIT Support   Frontend (HTML/CSS)   PHP   UI/UX   Java   Javascript   SQL    Làm việc nhóm Thuyết trình Giao tiếp</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>công ty octa lập trình viên frontend và backend tham gia phát triển sản phẩm về thương mai điện tử thảo luận với đội ngũ backend về thiết kế apiit support frontend htmlcss php uiux java javascript sql làm việc nhóm thuyết trình giao tiếp</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>công_ty octa lập_trình_viên frontend và backend tham_gia phát_triển sản_phẩm về thương mai điện_tử thảo_luận với đội_ngũ backend về thiết_kế apiit support frontend htmlcss php uiux java javascript sql làm_việc nhóm thuyết_trình giao_tiếp</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>công_ty octa lập_trình_viên frontend backend tham_gia phát_triển sản_phẩm mai điện_tử thảo_luận đội_ngũ backend thiết_kế apiit support frontend htmlcss php uiux java javascript sql làm_việc thuyết_trình giao_tiếp</t>
+          <t>công_ty octa lập_trình_viên frontend backend tham_gia phát_triển sản_phẩm mai điện_tử thảo_luận đội_ngũ backend thiết_kế api it support frontend htmlcss php uiux java javascript sql làm_việc thuyết_trình giao_tiếp it support frontend htmlcss php uiux java javascript sql làm_việc thuyết_trình giao_tiếp</t>
         </is>
       </c>
     </row>
@@ -2001,22 +1221,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Data Engineer Mobifone IT   Trách nhiệm chính Thu thập dữ liệu, tối ưu hóa hệ thống phân tích dữ liệu ETL (trích xuất tải chuyển đổi)  Developer, Data Engineer Công ty cổ phần công nghệ Novaon  Big Data/Hadoop   Python   SQL  </t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>data engineer mobifone it trách nhiệm chính thu thập dữ liệu tối ưu hóa hệ thống phân tích dữ liệu etl trích xuất tải chuyển đổi developer data engineer công ty cổ phần công nghệ novaon big datahadoop python sql</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>data engineer mobifone it trách_nhiệm chính thu_thập dữ_liệu tối_ưu_hóa hệ_thống phân_tích dữ_liệu etl trích xuất tải chuyển_đổi developer data engineer công_ty cổ_phần công_nghệ novaon big datahadoop python sql</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>data engineer mobifone it trách_nhiệm thu_thập dữ_liệu tối_ưu_hóa hệ_thống phân_tích dữ_liệu etl trích tải chuyển_đổi developer data engineer công_ty cổ_phần công_nghệ novaon big datahadoop python sql</t>
+          <t>data engineer mobifone it trách_nhiệm thu_thập dữ_liệu tối_ưu_hóa hệ_thống phân_tích dữ_liệu etl trích tải chuyển_đổi developer data engineer công_ty cổ_phần công_nghệ novaon big datahadoop python sql big datahadoop python sql</t>
         </is>
       </c>
     </row>
@@ -2031,22 +1236,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thực Tập Sinh C# CÔNG TY CP VIỄN THÔNG FPT(FPT TELECOM)   CỬA HÀNG QUẦN ÁO R4 CLOTHES  - Thiết kế trang web theo tài liệu mô tả, - Thực hiện chuyển giao diện MVC sang Blazor MudBlazor, SQL Server,  RESTAPI, CRUD, JWT, SMTP mail  SHOPPNG WEB ASP .NET MVC, Entity Framework, HTML/CSS, ADO.NET   Đăng nhập, đăng ký, quên mật khẩu, giỏ hàng, thống kê sản phẩm, khách hàng  Lập Trình Viên Windows Application CÔNG TY CP ERP VIỆT (DIGINET) - Kết hợp với BA và tester phát triển các chức năng theo mô tả của khách hàng. - Quản lý một số module của hệ thống Lemon3 ERP. - Tìm hiểu các công nghệ có thể kết hợp để hiệu suất phần mềm   .NET/C#   SQL   </t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>thực tập sinh c công ty cp viễn thông fptfpt telecom cửa hàng quần áo r4 clothes thiết kế trang web theo tài liệu mô tả thực hiện chuyển giao diện mvc sang blazor mudblazor sql server restapi crud jwt smtp mail shoppng web asp net mvc entity framework htmlcss adonet đăng nhập đăng ký quên mật khẩu giỏ hàng thống kê sản phẩm khách hàng lập trình viên windows application công ty cp erp việt diginet kết hợp với ba và tester phát triển các chức năng theo mô tả của khách hàng quản lý một số module của hệ thống lemon3 erp tìm hiểu các công nghệ có thể kết hợp để hiệu suất phần mềm netc sql</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>thực_tập_sinh c công_ty cp viễn_thông fptfpt telecom cửa_hàng quần_áo r4 clothes thiết_kế trang_web theo tài_liệu mô_tả_thực_hiện chuyển_giao_diện mvc sang blazor mudblazor sql server restapi crud jwt smtp mail shoppng web asp net mvc entity framework htmlcss adonet đăng_nhập đăng_ký quên mật_khẩu giỏ hàng thống_kê sản_phẩm khách_hàng lập_trình_viên windows application công_ty cp erp việt diginet kết_hợp với ba và tester phát_triển các chức_năng theo mô_tả của khách_hàng quản_lý một_số module của hệ_thống lemon3 erp tìm_hiểu các công_nghệ có_thể kết_hợp để hiệu_suất phần_mềm netc sql</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>thực_tập_sinh c công_ty cp viễn_thông fptfpt telecom cửa_hàng quần_áo clothes thiết_kế trang_web tài_liệu mô_tả_thực_hiện chuyển_giao_diện mvc blazor mudblazor sql server restapi crud jwt smtp mail shoppng web asp net mvc entity framework htmlcss adonet đăng_nhập đăng_ký quên mật_khẩu giỏ hàng thống_kê sản_phẩm khách_hàng lập_trình_viên windows application công_ty cp erp việt diginet kết_hợp tester phát_triển chức_năng mô_tả khách_hàng quản_lý một_số module hệ_thống erp tìm_hiểu công_nghệ có_thể kết_hợp hiệu_suất phần_mềm netc sql</t>
+          <t>thực_tập_sinh c công_ty cp viễn_thông fptfpt telecom cửa_hàng quần_áo clothes thiết_kế trang_web tài_liệu mô_tả_thực_hiện chuyển_giao_diện mvc blazor mudblazor sql server restapi crud jwt smtp mail shoppng web asp net mvc entity framework htmlcss adonet đăng_nhập đăng_ký quên mật_khẩu giỏ hàng thống_kê sản_phẩm khách_hàng lập_trình_viên windows application công_ty cp erp việt diginet kết_hợp tester phát_triển chức_năng mô_tả khách_hàng quản_lý một_số module hệ_thống erp tìm_hiểu công_nghệ có_thể kết_hợp hiệu_suất phần_mềm netc sql netc sql</t>
         </is>
       </c>
     </row>
@@ -2061,22 +1251,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Developer And System Administrator Mekong Data (MKD) - Phát triển website bằng Drupal 7 và Bootstrap. - Phát triển các trang web thương mại sử dụng magento  - Nghiên cứu UI/UX và thiết kế  - Quản lý cơ sở dữ liệu và triển khai mã vào Amazon Web Services, tích hợp Elaticsearch  - Phát triển module cho odoo   Part-Time Staff CAN THO UNIVERSITY SOFTWARE CENTER (CUSC)  -Tạo website cho phép tra cứu dữ liệu gạo bằng bootstrap, Jquery và Laravel. PHP   Javascript   Java   Quản Trị Mạng   Quản Trị Hệ Thống   .NET/C#    </t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>developer and system administrator mekong data mkd phát triển website bằng drupal 7 và bootstrap phát triển các trang web thương mại sử dụng magento nghiên cứu uiux và thiết kế quản lý cơ sở dữ liệu và triển khai mã vào amazon web services tích hợp elaticsearch phát triển module cho odoo parttime staff can tho university software center cusc tạo website cho phép tra cứu dữ liệu gạo bằng bootstrap jquery và laravel php javascript java quản trị mạng quản trị hệ thống netc</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>developer and system administrator mekong data mkd phát_triển website bằng drupal 7 và bootstrap phát_triển các trang_web thương_mại sử_dụng magento nghiên_cứu uiux và thiết_kế quản_lý cơ_sở dữ_liệu và triển_khai mã vào amazon web services tích_hợp elaticsearch phát_triển module cho odoo parttime staff can tho university software center cusc tạo website cho phép tra_cứu dữ_liệu gạo bằng bootstrap jquery và laravel php javascript java quản_trị mạng quản_trị hệ_thống netc</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>developer and system administrator mekong data mkd phát_triển website drupal bootstrap phát_triển trang_web thương_mại sử_dụng magento nghiên_cứu uiux thiết_kế quản_lý cơ_sở dữ_liệu triển_khai mã amazon web services tích_hợp elaticsearch phát_triển module odoo parttime staff can tho university software center cusc website phép tra_cứu dữ_liệu gạo bootstrap jquery laravel php javascript java quản_trị quản_trị hệ_thống netc</t>
+          <t>developer and system administrator mekong data mkd phát_triển website drupal bootstrap phát_triển trang_web thương_mại sử_dụng magento nghiên_cứu uiux thiết_kế quản_lý cơ_sở dữ_liệu triển_khai mã amazon web services tích_hợp elaticsearch phát_triển module odoo parttime staff can tho university software center cusc website phép tra_cứu dữ_liệu gạo bootstrap jquery laravel php javascript java quản_trị quản_trị hệ_thống netc php javascript java quản_trị quản_trị hệ_thống netc</t>
         </is>
       </c>
     </row>
@@ -2091,22 +1266,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">CÔNG TY CỔ PHẦN TẬP ĐOÀN  ITP GROUP  App giao việc WEWORK - Sử dụng ReactJS Hook, MySQL, Laravel.. - Đảm nhiệm Leader WEBSITE THEO DÕI GIÁ CẢ CÁC LOẠI TIỀN ĐIỆN TỬ CRYPTO - Sử dụng ReactJS Hook, MongoDB, NodeJS (ExpressJS). - API sàn Coinkecgo., base64 mã hóa hình ảnh, responsive. - Chức năng cụ thể theo dõi chart coin, kyc nhận coin, swap coin   CÔNG TY CỔ PHẦN CÔNG NGHỆ QUỐC TẾ VNA GROUP HỆ THỐNG BETA ĐÁNH GIÁ CHẤT LƯỢNG GIẢNG DẠY GIÁO VIÊN  - Sử dụng ReactJS, MongoDB, NestJS. - Đảm nhận Leader nhóm, triển khai kế hoạch cho team, báo cáo. - CRUD, cụ thể các page admin, hiệu trưởng, phụ huynh.  ReactJs, Nodejs </t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>công ty cổ phần tập đoàn itp group app giao việc wework sử dụng reactjs hook mysql laravel đảm nhiệm leader website theo dõi giá cả các loại tiền điện tử crypto sử dụng reactjs hook mongodb nodejs expressjs api sàn coinkecgo base64 mã hóa hình ảnh responsive chức năng cụ thể theo dõi chart coin kyc nhận coin swap coin công ty cổ phần công nghệ quốc tế vna group hệ thống beta đánh giá chất lượng giảng dạy giáo viên sử dụng reactjs mongodb nestjs đảm nhận leader nhóm triển khai kế hoạch cho team báo cáo crud cụ thể các page admin hiệu trưởng phụ huynh reactjs nodejs</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>công_ty cổ_phần tập_đoàn itp group app giao việc wework sử_dụng reactjs hook mysql laravel đảm_nhiệm leader website theo_dõi giá_cả các loại tiền điện_tử crypto sử_dụng reactjs hook mongodb nodejs expressjs api sàn coinkecgo base64 mã_hóa hình_ảnh responsive chức_năng cụ_thể theo_dõi chart coin kyc nhận coin swap coin công_ty cổ_phần công_nghệ quốc_tế vna group hệ_thống beta đánh_giá chất_lượng giảng_dạy giáo_viên sử_dụng reactjs mongodb nestjs đảm_nhận leader nhóm triển_khai kế_hoạch cho team báo_cáo crud cụ_thể các page admin hiệu_trưởng phụ_huynh reactjs nodejs</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>công_ty cổ_phần tập_đoàn itp group app giao wework sử_dụng reactjs hook mysql laravel đảm_nhiệm leader website theo_dõi giá_cả tiền điện_tử crypto sử_dụng reactjs hook mongodb nodejs expressjs api sàn coinkecgo mã_hóa hình_ảnh responsive chức_năng cụ_thể theo_dõi chart coin kyc coin swap coin công_ty cổ_phần công_nghệ quốc_tế vna group hệ_thống beta đánh_giá chất_lượng giảng_dạy giáo_viên sử_dụng reactjs mongodb nestjs đảm_nhận leader triển_khai kế_hoạch team báo_cáo crud cụ_thể page admin hiệu_trưởng phụ_huynh reactjs nodejs</t>
+          <t>công_ty cổ_phần tập_đoàn itp group app giao wework sử_dụng reactjs hook mysql laravel đảm_nhiệm leader website theo_dõi giá_cả tiền điện_tử crypto sử_dụng reactjs hook mongodb nodejs expressjs api sàn coinkecgo mã_hóa hình_ảnh responsive chức_năng cụ_thể theo_dõi chart coin kyc coin swap coin công_ty cổ_phần công_nghệ quốc_tế vna group hệ_thống beta đánh_giá chất_lượng giảng_dạy giáo_viên sử_dụng reactjs mongodb nestjs đảm_nhận leader triển_khai kế_hoạch team báo_cáo crud cụ_thể page admin hiệu_trưởng phụ_huynh reactjs nodejs reactjs nodejs</t>
         </is>
       </c>
     </row>
@@ -2121,22 +1281,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ÍCH ĐÔNG Lập trình viên PHP LẬP TRÌNH PHP Lập trình viên PHP  -mã nguồn Laravel - Tìm hiểu được html,css cơ bản - Cắt HTML/CSS từ dự án đã dựng sẵn trên Figma,photoshop - Xử lý được 1 trang web từ bộ code có sẵn bằng framework Laravel   Google Ads(AdWords)   Facebook Ads   Frontend (HTML/CSS)    Làm việc nhóm</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>ích đông lập trình viên php lập trình php lập trình viên php mã nguồn laravel tìm hiểu được htmlcss cơ bản cắt htmlcss từ dự án đã dựng sẵn trên figmaphotoshop xử lý được 1 trang web từ bộ code có sẵn bằng framework laravel google adsadwords facebook ads frontend htmlcss làm việc nhóm</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>ích đông lập_trình_viên php lập_trình php lập_trình_viên php mã nguồn laravel tìm_hiểu được htmlcss cơ_bản cắt htmlcss từ dự_án đã dựng sẵn trên figmaphotoshop xử_lý được 1 trang_web từ bộ code có sẵn bằng framework laravel google adsadwords facebook ads frontend htmlcss làm_việc nhóm</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>ích đông lập_trình_viên php lập_trình php lập_trình_viên php mã laravel tìm_hiểu htmlcss cơ_bản htmlcss dự_án dựng sẵn figmaphotoshop xử_lý trang_web code sẵn framework laravel google adsadwords facebook ads frontend htmlcss làm_việc</t>
+          <t>ích đông lập_trình_viên php lập_trình php lập_trình_viên php mã laravel tìm_hiểu htmlcss cơ_bản htmlcss dự_án dựng sẵn figmaphotoshop xử_lý trang_web code sẵn framework laravel google adsadwords facebook ads frontend htmlcss làm_việc google adsadwords facebook ads frontend htmlcss làm_việc</t>
         </is>
       </c>
     </row>
@@ -2151,22 +1296,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Intern Front-End Biz4 Group  - Tham gia xây dựng website công ty (sử dụng ReactJs, Material-UI,...). - Chuyển đổi Figma sang Html/CSS. - Chỉnh sửa, cập nhật giao diện website theo yêu cầu của khách hàng.Frontend (HTML/CSS)   Javascript    Quản lý thời gian Giao tiếp Làm việc nhóm Giải quyết vấn đề Lập kế hoạch</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>intern frontend biz4 group tham gia xây dựng website công ty sử dụng reactjs materialui chuyển đổi figma sang htmlcss chỉnh sửa cập nhật giao diện website theo yêu cầu của khách hàngfrontend htmlcss javascript quản lý thời gian giao tiếp làm việc nhóm giải quyết vấn đề lập kế hoạch</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>intern frontend biz4 group tham_gia xây_dựng website công_ty sử_dụng reactjs materialui chuyển_đổi figma sang htmlcss chỉnh_sửa cập_nhật giao_diện website theo yêu_cầu của khách hàngfrontend htmlcss javascript quản_lý thời_gian giao_tiếp làm_việc nhóm giải_quyết vấn_đề lập kế_hoạch</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>intern frontend group tham_gia xây_dựng website công_ty sử_dụng reactjs materialui chuyển_đổi figma htmlcss chỉnh_sửa cập_nhật giao_diện website yêu_cầu hàngfrontend htmlcss javascript quản_lý thời_gian giao_tiếp làm_việc giải_quyết vấn_đề kế_hoạch</t>
+          <t>intern frontend group tham_gia xây_dựng website công_ty sử_dụng reactjs materialui chuyển_đổi figma htmlcss chỉnh_sửa cập_nhật giao_diện website yêu_cầu khách_hàng frontend htmlcss javascript quản_lý thời_gian giao_tiếp làm_việc giải_quyết vấn_đề kế_hoạch frontend htmlcss javascript quản_lý thời_gian giao_tiếp làm_việc giải_quyết vấn_đề kế_hoạch</t>
         </is>
       </c>
     </row>
@@ -2181,22 +1311,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Side Project Website To Chat Simple Dự Án Cá Nhân Đơn Giản Sử Dụng MVC với template Handlebars kết hợp với Socket IO. Công nghệ NodeJS, Socket IO, JQUERY, PostgreSQL.Nodejs, PostgreSQL</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>side project website to chat simple dự án cá nhân đơn giản sử dụng mvc với template handlebars kết hợp với socket io công nghệ nodejs socket io jquery postgresqlnodejs postgresql</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>side project website to chat simple dự_án cá_nhân đơn_giản sử_dụng mvc với template handlebars kết_hợp với socket io công_nghệ nodejs socket io jquery postgresqlnodejs postgresql</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>side project website to chat simple dự_án cá_nhân đơn_giản sử_dụng mvc template handlebars kết_hợp socket io công_nghệ nodejs socket io jquery postgresqlnodejs postgresql</t>
+          <t>side project website to chat simple dự_án cá_nhân đơn_giản sử_dụng mvc template handlebars kết_hợp socket io công_nghệ nodejs socket io jquery postgresql nodejs postgresql nodejs postgresql</t>
         </is>
       </c>
     </row>
@@ -2211,22 +1326,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">PHP Developer CÔNG TY CỔ PHẦN TỔNG HỢP VIỆT NHẬT VINICORP  Tham gia xây dựng và phát triển các ứng dụng web cho công ty sử dụng Php Mysql và Framework Cake Php  CÔNG TY CỔ PHẦN THƯƠNG MẠI HẢO ANH SEOer  Dùng Visual Basic, C# lập trình các tool giúp tự động hóa một số việc trong quá trình làm SEO giúp tăng hiệu quả công việc.  Quản lý hệ thống website của công ty, đảm bảo các website hoạt động ổn định. Thiết kế và chỉnh sửa hình ảnh các sản phẩm, logo, bannerNội Dung   Quản Trị Mạng   Frontend (HTML/CSS)   PHP   Javascript  </t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>php developer công ty cổ phần tổng hợp việt nhật vinicorp tham gia xây dựng và phát triển các ứng dụng web cho công ty sử dụng php mysql và framework cake php công ty cổ phần thương mại hảo anh seoer dùng visual basic c lập trình các tool giúp tự động hóa một số việc trong quá trình làm seo giúp tăng hiệu quả công việc quản lý hệ thống website của công ty đảm bảo các website hoạt động ổn định thiết kế và chỉnh sửa hình ảnh các sản phẩm logo bannernội dung quản trị mạng frontend htmlcss php javascript</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>php developer công_ty cổ_phần tổng_hợp việt nhật vinicorp tham_gia xây_dựng và phát_triển các ứng_dụng web cho công_ty sử_dụng php mysql và framework cake php công_ty cổ_phần thương_mại hảo anh seoer dùng visual basic c lập_trình các tool giúp tự_động hóa một_số việc trong quá_trình làm seo giúp tăng hiệu_quả công_việc quản_lý hệ_thống website của công_ty đảm_bảo các website hoạt_động ổn_định thiết_kế và chỉnh_sửa hình_ảnh các sản_phẩm logo bannernội dung quản_trị mạng frontend htmlcss php javascript</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>php developer công_ty cổ_phần tổng_hợp việt nhật vinicorp tham_gia xây_dựng phát_triển ứng_dụng web công_ty sử_dụng php mysql framework cake php công_ty cổ_phần thương_mại hảo seoer visual basic c lập_trình tool giúp tự_động hóa một_số quá_trình seo giúp hiệu_quả công_việc quản_lý hệ_thống website công_ty đảm_bảo website hoạt_động ổn_định thiết_kế chỉnh_sửa hình_ảnh sản_phẩm logo bannernội dung quản_trị frontend htmlcss php javascript</t>
+          <t>php developer công_ty cổ_phần tổng_hợp việt nhật vinicorp tham_gia xây_dựng phát_triển ứng_dụng web công_ty sử_dụng php mysql framework cake php công_ty cổ_phần thương_mại hảo seoer visual basic c lập_trình tool giúp tự_động hóa một_số quá_trình seo giúp hiệu_quả công_việc quản_lý hệ_thống website công_ty đảm_bảo website hoạt_động ổn_định thiết_kế chỉnh_sửa hình_ảnh sản_phẩm logo banner nội_dung quản_trị frontend htmlcss php javascript nội_dung quản_trị frontend htmlcss php javascript</t>
         </is>
       </c>
     </row>
@@ -2241,22 +1341,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lập Trình Viên Công ty cổ phần Tài Chính Việt  - Phân tích thiết kế hệ thống - Lập trình trên nền PHP framework Laravel, CI -Thiết kế các báo cáo tài chính trong hệ thống... -Vận hành quản lý hệ thống fintech tài chính bằng GIT và base. -Quản lý contact, hợp đồng , công thức thanh toán, tất toán trả lãi cho nhà đầu tư và khách hàng,  kết nối cổng thanh toán và thanh toán tự động cho nhà đầu tư và giải ngân cho khách hàng . -Hỗ trợ phòng ban liên quan và liên kết đối tác hợp tác bảo hiểm , cổng thanh toán   Lập Trình Viên Công ty Apaxenglish  - Phân tích thiết kế hệ thống - Lập trình trên nền PHP framework Laravel, Vuejs, NodeJs -Thiết kế các báo cáo trong hệ thống CRM... -Sử dụng Stress Test , cache, index , tối ưu lozic code để hệ thống vận hành ổn định không bị giật lác.  -Hỗ trợ khách hàng sử dụng hệ thống.Kỹ năng AI: Xử lý ảnh, xử lý ngôn ngữ tự nhiên Kỹ năng phát triển phần mềm: Web, mobile Ngoại ngữ Đọc tài liệu tốt, giao tiếp tương đối</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>lập trình viên công ty cổ phần tài chính việt phân tích thiết kế hệ thống lập trình trên nền php framework laravel ci thiết kế các báo cáo tài chính trong hệ thống vận hành quản lý hệ thống fintech tài chính bằng git và base quản lý contact hợp đồng công thức thanh toán tất toán trả lãi cho nhà đầu tư và khách hàng kết nối cổng thanh toán và thanh toán tự động cho nhà đầu tư và giải ngân cho khách hàng hỗ trợ phòng ban liên quan và liên kết đối tác hợp tác bảo hiểm cổng thanh toán lập trình viên công ty apaxenglish phân tích thiết kế hệ thống lập trình trên nền php framework laravel vuejs nodejs thiết kế các báo cáo trong hệ thống crm sử dụng stress test cache index tối ưu lozic code để hệ thống vận hành ổn định không bị giật lác hỗ trợ khách hàng sử dụng hệ thốngkỹ năng ai xử lý ảnh xử lý ngôn ngữ tự nhiên kỹ năng phát triển phần mềm web mobile ngoại ngữ đọc tài liệu tốt giao tiếp tương đối</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>lập_trình_viên công_ty cổ_phần tài_chính việt phân_tích thiết_kế hệ_thống lập_trình trên nền php framework laravel ci thiết_kế các báo_cáo tài_chính trong hệ_thống vận_hành quản_lý hệ_thống fintech tài_chính bằng git và base quản_lý contact hợp_đồng công_thức thanh_toán tất toán trả lãi cho nhà đầu_tư và khách_hàng kết_nối cổng thanh_toán và thanh_toán tự_động cho nhà đầu_tư và giải_ngân cho khách_hàng hỗ_trợ phòng_ban liên_quan và liên_kết đối_tác hợp_tác bảo_hiểm cổng thanh_toán lập_trình_viên công_ty apaxenglish phân_tích thiết_kế hệ_thống lập_trình trên nền php framework laravel vuejs nodejs thiết_kế các báo_cáo trong hệ_thống crm sử_dụng stress test cache index tối_ưu lozic code để hệ_thống vận_hành ổn_định không bị giật lác hỗ_trợ khách_hàng sử_dụng hệ thốngkỹ năng ai xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu tốt giao_tiếp tương_đối</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>lập_trình_viên công_ty cổ_phần tài_chính việt phân_tích thiết_kế hệ_thống lập_trình php framework laravel ci thiết_kế báo_cáo tài_chính hệ_thống vận_hành quản_lý hệ_thống fintech tài_chính git base quản_lý contact hợp_đồng công_thức thanh_toán toán lãi đầu_tư khách_hàng kết_nối cổng thanh_toán thanh_toán tự_động đầu_tư giải_ngân khách_hàng hỗ_trợ phòng_ban liên_quan liên_kết đối_tác hợp_tác bảo_hiểm cổng thanh_toán lập_trình_viên công_ty apaxenglish phân_tích thiết_kế hệ_thống lập_trình php framework laravel vuejs nodejs thiết_kế báo_cáo hệ_thống crm sử_dụng stress test cache index tối_ưu lozic code hệ_thống vận_hành ổn_định giật lác hỗ_trợ khách_hàng sử_dụng hệ thốngkỹ năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối</t>
+          <t>lập_trình_viên công_ty cổ_phần tài_chính việt phân_tích thiết_kế hệ_thống lập_trình php framework laravel ci thiết_kế báo_cáo tài_chính hệ_thống vận_hành quản_lý hệ_thống fintech tài_chính git base quản_lý contact hợp_đồng công_thức thanh_toán toán lãi đầu_tư khách_hàng kết_nối cổng thanh_toán thanh_toán tự_động đầu_tư giải_ngân khách_hàng hỗ_trợ phòng_ban liên_quan liên_kết đối_tác hợp_tác bảo_hiểm cổng thanh_toán lập_trình_viên công_ty apaxenglish phân_tích thiết_kế hệ_thống lập_trình php framework laravel vuejs nodejs thiết_kế báo_cáo hệ_thống crm sử_dụng stress test cache index tối_ưu lozic code hệ_thống vận_hành ổn_định giật lác hỗ_trợ khách_hàng sử_dụng hệ_thống kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối</t>
         </is>
       </c>
     </row>
@@ -2271,22 +1356,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">MERN stack project Web chăm sóc sức khỏe.   Sử dụng ReactJS và NodeJS Express MongoDB  Tôi chủ yếu làm ReactJS, giao diện người dùng và một số xác thực JWT.  AWS Cloud Foundation  Tôi đã tham gia khóa học Cloud computing,chủ yếu triển khai  các trang web bằng AWS và Google Cloud, Lambda, EC2, Buckets, S3 và nhiều dịch vụ khácReactJs Nodejs  Lập Kế Hoạch  </t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>mern stack project web chăm sóc sức khỏe sử dụng reactjs và nodejs express mongodb tôi chủ yếu làm reactjs giao diện người dùng và một số xác thực jwt aws cloud foundation tôi đã tham gia khóa học cloud computingchủ yếu triển khai các trang web bằng aws và google cloud lambda ec2 buckets s3 và nhiều dịch vụ khácreactjs nodejs lập kế hoạch</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>mern stack project web chăm_sóc sức_khỏe sử_dụng reactjs và nodejs express mongodb tôi chủ_yếu làm reactjs giao_diện người dùng và một_số xác_thực jwt aws cloud foundation tôi đã tham_gia khóa học cloud computingchủ yếu triển_khai các trang_web bằng aws và google cloud lambda ec2 buckets s3 và nhiều dịch_vụ khácreactjs nodejs lập kế_hoạch</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>mern stack project web chăm_sóc sức_khỏe sử_dụng reactjs nodejs express mongodb chủ_yếu reactjs giao_diện một_số xác_thực jwt aws cloud foundation tham_gia khóa học cloud computingchủ yếu triển_khai trang_web aws google cloud lambda buckets dịch_vụ khácreactjs nodejs kế_hoạch</t>
+          <t>mern stack project web chăm_sóc sức_khỏe sử_dụng reactjs nodejs express mongodb chủ_yếu reactjs giao_diện một_số xác_thực jwt aws cloud foundation tham_gia khóa học cloud computingchủ yếu triển_khai trang_web aws google cloud lambda buckets dịch_vụ reactjs nodejs kế_hoạch reactjs nodejs kế_hoạch</t>
         </is>
       </c>
     </row>
@@ -2301,22 +1371,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mobile Developer FPT SOFTWARE CO., LTD   Tham gia dự án React Native để triển khai App quản lý kho xăng dầu   Tạo ứng dụng để mọi người giao tiếp với chủ khách sạn, nhà nghỉ hoặc homestay    Xây dựng thiết kế mã giao diện người dùng cho các tính năng mới, làm sạch mã và tối ưu hóa hiệu suất, Nghiên cứu và ứng dụng công nghệ mới vào các dự án, tham gia viết code mẫu cho công ty   Tích hợp SDK riêng của công ty   Làm việc với quy trình phát triển Agile/Scrum Thành tích và kỹ năng đạt được  Lập Trình Mobile FPT Software  Tiếp nhận thông tin trực tiếp từ khách hàng rồi bàn luận với team để phát triển sản phẩm được quản lý trực tiếp bởi BA và PMiOS   Android    Quản lý thời gian Năng động Phân tích Làm việc nhóm  </t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>mobile developer fpt software co ltd tham gia dự án react native để triển khai app quản lý kho xăng dầu tạo ứng dụng để mọi người giao tiếp với chủ khách sạn nhà nghỉ hoặc homestay xây dựng thiết kế mã giao diện người dùng cho các tính năng mới làm sạch mã và tối ưu hóa hiệu suất nghiên cứu và ứng dụng công nghệ mới vào các dự án tham gia viết code mẫu cho công ty tích hợp sdk riêng của công ty làm việc với quy trình phát triển agilescrum thành tích và kỹ năng đạt được lập trình mobile fpt software tiếp nhận thông tin trực tiếp từ khách hàng rồi bàn luận với team để phát triển sản phẩm được quản lý trực tiếp bởi ba và pmios android quản lý thời gian năng động phân tích làm việc nhóm</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>mobile developer fpt software co ltd tham_gia dự_án react native để triển_khai app quản_lý kho xăng dầu tạo ứng_dụng để mọi người giao_tiếp với chủ_khách_sạn nhà_nghỉ hoặc homestay xây_dựng thiết_kế mã giao_diện người dùng cho các tính_năng mới làm sạch mã và tối_ưu_hóa hiệu_suất nghiên_cứu và ứng_dụng công_nghệ mới vào các dự_án tham_gia viết code mẫu cho công_ty tích_hợp sdk riêng của công_ty làm_việc với quy_trình phát_triển agilescrum thành_tích và kỹ_năng đạt được lập_trình mobile fpt software tiếp_nhận thông_tin trực_tiếp từ khách_hàng rồi bàn_luận với team để phát_triển sản_phẩm được quản_lý trực_tiếp bởi ba và pmios android quản_lý thời_gian năng_động phân_tích làm_việc nhóm</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>mobile developer fpt software co ltd tham_gia dự_án react native triển_khai app quản_lý kho xăng ứng_dụng giao_tiếp chủ_khách_sạn nhà_nghỉ homestay xây_dựng thiết_kế mã giao_diện tính_năng sạch mã tối_ưu_hóa hiệu_suất nghiên_cứu ứng_dụng công_nghệ dự_án tham_gia viết code mẫu công_ty tích_hợp sdk công_ty làm_việc quy_trình phát_triển agilescrum thành_tích kỹ_năng lập_trình mobile fpt software tiếp_nhận thông_tin trực_tiếp khách_hàng bàn_luận team phát_triển sản_phẩm quản_lý trực_tiếp pmios android quản_lý thời_gian năng_động phân_tích làm_việc</t>
+          <t>mobile developer fpt software co ltd tham_gia dự_án react native triển_khai app quản_lý kho xăng ứng_dụng giao_tiếp chủ_khách_sạn nhà_nghỉ homestay xây_dựng thiết_kế mã giao_diện tính_năng sạch mã tối_ưu_hóa hiệu_suất nghiên_cứu ứng_dụng công_nghệ dự_án tham_gia viết code mẫu công_ty tích_hợp sdk công_ty làm_việc quy_trình phát_triển agilescrum thành_tích kỹ_năng lập_trình mobile fpt software tiếp_nhận thông_tin trực_tiếp khách_hàng bàn_luận team phát_triển sản_phẩm quản_lý trực_tiếp pm ios android quản_lý thời_gian năng_động phân_tích làm_việc ios android quản_lý thời_gian năng_động phân_tích làm_việc</t>
         </is>
       </c>
     </row>
@@ -2331,22 +1386,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Developer Digiwin Software JSC  - Thêm tính năng mới và chỉnh sửa cho ứng dụng ERP. - Chỉnh sửa giao diện người dùng. - Cập nhật phiên bản ERP cũ của khách hàng lên phiên bản mới.  Triển Khai Phần Mềm   .NET/C#   Java   </t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>developer digiwin software jsc thêm tính năng mới và chỉnh sửa cho ứng dụng erp chỉnh sửa giao diện người dùng cập nhật phiên bản erp cũ của khách hàng lên phiên bản mới triển khai phần mềm netc java</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>developer digiwin software jsc thêm tính_năng mới và chỉnh_sửa cho ứng_dụng erp chỉnh_sửa giao_diện người dùng cập_nhật phiên_bản erp cũ của khách_hàng lên phiên_bản mới triển_khai phần_mềm netc java</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>developer digiwin software jsc tính_năng chỉnh_sửa ứng_dụng erp chỉnh_sửa giao_diện cập_nhật phiên_bản erp cũ khách_hàng phiên_bản triển_khai phần_mềm netc java</t>
+          <t>developer digiwin software jsc tính_năng chỉnh_sửa ứng_dụng erp chỉnh_sửa giao_diện cập_nhật phiên_bản erp cũ khách_hàng phiên_bản triển_khai phần_mềm netc java triển_khai phần_mềm netc java</t>
         </is>
       </c>
     </row>
@@ -2361,22 +1401,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lập Trình Web (Wordpress) Công ty Truyền thông iColor  - Cắt html/css từ file psd - Xây dựng website theo giao diện mà thiết kế đưa ra trên nền tảng wordpress - Hỗ trợ chỉnh sửa , nâng cấp website theo yêu cầu từ phía khách hàng. - Đã hoàn thành được hơn 50 dự án website: PHP   Javascript   Backend   Frontend (HTML/CSS)   Frontend (HTML/CSS)   SQL   Java   SQL    Năng động Quản lý thời gian Giao tiếp Giải quyết vấn đề Làm việc nhóm Lãnh Đạo Hòa đồng Xây dựng quan hệ Lập kế hoạch</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>lập trình web wordpress công ty truyền thông icolor cắt htmlcss từ file psd xây dựng website theo giao diện mà thiết kế đưa ra trên nền tảng wordpress hỗ trợ chỉnh sửa nâng cấp website theo yêu cầu từ phía khách hàng đã hoàn thành được hơn 50 dự án website php javascript backend frontend htmlcss frontend htmlcss sql java sql năng động quản lý thời gian giao tiếp giải quyết vấn đề làm việc nhóm lãnh đạo hòa đồng xây dựng quan hệ lập kế hoạch</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>lập_trình web wordpress công_ty truyền_thông icolor cắt htmlcss từ file psd xây_dựng website theo giao_diện mà thiết_kế đưa ra trên nền_tảng wordpress hỗ_trợ chỉnh_sửa nâng_cấp website theo yêu_cầu từ phía khách_hàng đã hoàn_thành được hơn 50 dự_án website php javascript backend frontend htmlcss frontend htmlcss sql java sql năng_động quản_lý thời_gian giao_tiếp giải_quyết vấn_đề làm_việc nhóm lãnh_đạo hòa đồng xây_dựng quan_hệ lập kế_hoạch</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>lập_trình web wordpress công_ty truyền_thông icolor htmlcss file psd xây_dựng website giao_diện thiết_kế nền_tảng wordpress hỗ_trợ chỉnh_sửa nâng_cấp website yêu_cầu khách_hàng hoàn_thành dự_án website php javascript backend frontend htmlcss frontend htmlcss sql java sql năng_động quản_lý thời_gian giao_tiếp giải_quyết vấn_đề làm_việc lãnh_đạo hòa xây_dựng quan_hệ kế_hoạch</t>
+          <t>lập_trình web wordpress công_ty truyền_thông icolor htmlcss file psd xây_dựng website giao_diện thiết_kế nền_tảng wordpress hỗ_trợ chỉnh_sửa nâng_cấp website yêu_cầu khách_hàng hoàn_thành dự_án website php javascript backend frontend htmlcss frontend htmlcss sql java sql năng_động quản_lý thời_gian giao_tiếp giải_quyết vấn_đề làm_việc lãnh_đạo hòa xây_dựng quan_hệ kế_hoạch php javascript backend frontend htmlcss frontend htmlcss sql java sql năng_động quản_lý thời_gian giao_tiếp giải_quyết vấn_đề làm_việc lãnh_đạo hòa xây_dựng quan_hệ kế_hoạch</t>
         </is>
       </c>
     </row>
@@ -2391,22 +1416,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Làm việc tại công ty A:    6/2022 - 8/2022 Tham gia nghiên cứu các dự án AI  Làm việc tại công ty B      6/2022 - 8/2022 Tham gia phát triển, sửa lỗi các phần mềm   Kỹ năng AI: Xử lý ảnh, xử lý ngôn ngữ tự nhiên Kỹ năng phát triển phần mềm: Web, mobile Ngoại ngữ Đọc tài liệu tốt, giao tiếp tương đối</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>làm việc tại công ty a 62022 82022 tham gia nghiên cứu các dự án ai làm việc tại công ty b 62022 82022 tham gia phát triển sửa lỗi các phần mềm kỹ năng ai xử lý ảnh xử lý ngôn ngữ tự nhiên kỹ năng phát triển phần mềm web mobile ngoại ngữ đọc tài liệu tốt giao tiếp tương đối</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>làm_việc tại công_ty a 62022 82022 tham_gia nghiên_cứu các dự_án ai làm_việc tại công_ty b 62022 82022 tham_gia phát_triển sửa lỗi các phần_mềm kỹ_năng ai xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu tốt giao_tiếp tương_đối</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>làm_việc công_ty tham_gia nghiên_cứu dự_án làm_việc công_ty b tham_gia phát_triển sửa lỗi phần_mềm kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối</t>
+          <t>làm_việc công_ty tham_gia nghiên_cứu dự_án làm_việc công_ty b tham_gia phát_triển sửa lỗi phần_mềm kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối</t>
         </is>
       </c>
     </row>
@@ -2421,22 +1431,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">MOBILE DEVELOPER CTY PTPM QUANG TRUNG  - Bảo trì, nâng cấp các dự án React Native cũ. - Tham gia phát triển các sản phẩm outsource tại công ty.Javascript   iOS   Android  </t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>mobile developer cty ptpm quang trung bảo trì nâng cấp các dự án react native cũ tham gia phát triển các sản phẩm outsource tại công tyjavascript ios android</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>mobile developer cty ptpm quang trung bảo_trì nâng_cấp các dự_án react native cũ tham_gia phát_triển các sản_phẩm outsource tại công tyjavascript ios android</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>mobile developer cty ptpm quang bảo_trì nâng_cấp dự_án react native cũ tham_gia phát_triển sản_phẩm outsource tyjavascript ios android</t>
+          <t>mobile developer cty ptpm quang bảo_trì nâng_cấp dự_án react native cũ tham_gia phát_triển sản_phẩm outsource công_ty javascript ios android javascript ios android</t>
         </is>
       </c>
     </row>
@@ -2451,22 +1446,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Full Stack Developer NFQ ASIA  • Xây dựng website cả trên Frontend và Backend bằng nhiều công nghệ khác nhau như Symfony, AWS, React, Redux, Cloudflare, v.v.  Self-Projects  • Nhận dạng bông hoa sử dụng mạng thần kinh tích chập, chính quy hóa, bỏ học, tăng cường dữ liệu, mini -batch giảm độ dốc, tổng hợp tối đa • Dự đoán giá cà phê bằng Long short -mô hình bộ nhớ hạn, phân rã tỷ lệ học tập, mini -batch giảm độ dốc, chuẩn hóa L1 và L2 Nhà phát triển Python tại Ferrous Design (freelancer) – 01/2021 đến • Xử lý và quản lý dữ liệu từ email cho mục đích khoa học dữ liệuFull-stack   NodeJS  </t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>full stack developer nfq asia • xây dựng website cả trên frontend và backend bằng nhiều công nghệ khác nhau như symfony aws react redux cloudflare vv selfprojects • nhận dạng bông hoa sử dụng mạng thần kinh tích chập chính quy hóa bỏ học tăng cường dữ liệu mini batch giảm độ dốc tổng hợp tối đa • dự đoán giá cà phê bằng long short mô hình bộ nhớ hạn phân rã tỷ lệ học tập mini batch giảm độ dốc chuẩn hóa l1 và l2 nhà phát triển python tại ferrous design freelancer – 012021 đến • xử lý và quản lý dữ liệu từ email cho mục đích khoa học dữ liệufullstack nodejs</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>full stack developer nfq asia • xây_dựng website cả trên frontend và backend bằng nhiều công_nghệ khác nhau như symfony aws react redux cloudflare vv selfprojects • nhận_dạng bông hoa sử_dụng mạng thần_kinh tích chập chính_quy_hóa bỏ học tăng_cường dữ_liệu mini batch giảm độ dốc tổng_hợp tối_đa • dự_đoán giá cà_phê bằng long short mô_hình bộ_nhớ hạn phân_rã tỷ_lệ học_tập mini batch giảm độ dốc chuẩn_hóa l1 và l2 nhà phát_triển python tại ferrous design freelancer – 012021 đến • xử_lý và quản_lý dữ_liệu từ email cho mục_đích khoa_học dữ liệufullstack nodejs</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>full stack developer nfq asia xây_dựng website frontend backend công_nghệ symfony aws react redux cloudflare vv selfprojects nhận_dạng hoa sử_dụng thần_kinh tích chính_quy_hóa học tăng_cường dữ_liệu mini batch độ dốc tổng_hợp tối_đa dự_đoán cà_phê long short mô_hình bộ_nhớ hạn phân_rã tỷ_lệ học_tập mini batch độ dốc chuẩn_hóa phát_triển python ferrous design freelancer xử_lý quản_lý dữ_liệu email mục_đích khoa_học liệufullstack nodejs</t>
+          <t>full stack developer nfq asia xây_dựng website frontend backend công_nghệ symfony aws react redux cloudflare vv selfprojects nhận_dạng hoa sử_dụng thần_kinh tích chính_quy_hóa học tăng_cường dữ_liệu mini batch độ dốc tổng_hợp tối_đa dự_đoán cà_phê long short mô_hình bộ_nhớ hạn phân_rã tỷ_lệ học_tập mini batch độ dốc chuẩn_hóa phát_triển python ferrous design freelancer xử_lý quản_lý dữ_liệu email mục_đích khoa_học dữ_liệu fullstack nodejs fullstack nodejs</t>
         </is>
       </c>
     </row>
@@ -2481,22 +1461,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Freelancer Team Mobile Flutter  Flutter Skills - Phát triển apps sử dụng Bloc State Management - Firebase - Adobe XD  Internship Dat Viet Software Company  -Học Java web -Spring core -Đọc và nghiêng cứu tài liệu  Backend   Python   iOS   Android   Thiết Kế 2D   Thiết Kế 3D   .NET/C#   Frontend (HTML/CSS)   CNTT - Phần mềm   </t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>freelancer team mobile flutter flutter skills phát triển apps sử dụng bloc state management firebase adobe xd internship dat viet software company học java web spring core đọc và nghiêng cứu tài liệu backend python ios android thiết kế 2d thiết kế 3d netc frontend htmlcss cntt phần mềm</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>freelancer team mobile flutter flutter skills phát_triển apps sử_dụng bloc state management firebase adobe xd internship dat viet software company học java web spring core đọc và nghiêng cứu tài_liệu backend python ios android thiết_kế 2d thiết_kế 3d netc frontend htmlcss cntt phần_mềm</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>freelancer team mobile flutter flutter skills phát_triển apps sử_dụng bloc state management firebase adobe xd internship dat viet software company học java web spring core đọc nghiêng cứu tài_liệu backend python ios android thiết_kế thiết_kế netc frontend htmlcss cntt phần_mềm</t>
+          <t>freelancer team mobile flutter flutter skills phát_triển apps sử_dụng bloc state management firebase adobe xd internship dat viet software company học java web spring core đọc nghiêng cứu tài_liệu backend python ios android thiết_kế thiết_kế netc frontend htmlcss cntt phần_mềm backend python ios android thiết_kế thiết_kế netc frontend htmlcss cntt phần_mềm</t>
         </is>
       </c>
     </row>
@@ -2511,22 +1476,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>WEATHER PREDICTION Developer BIOMETRICS PROJECT  Thu thập dữ liệu từ API web, sau đó xử lý dữ liệu và đào tạo dữ liệu với một số mô hình máy học.Quản Lý Dự Án (IT)     .NET/C#   Java   Python</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>weather prediction developer biometrics project thu thập dữ liệu từ api web sau đó xử lý dữ liệu và đào tạo dữ liệu với một số mô hình máy họcquản lý dự án it netc java python</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>weather prediction developer biometrics project thu_thập dữ_liệu từ api web sau đó xử_lý dữ_liệu và đào_tạo dữ_liệu với một_số mô_hình máy họcquản lý dự_án it netc java python</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>weather prediction developer biometrics project thu_thập dữ_liệu api web xử_lý dữ_liệu đào_tạo dữ_liệu một_số mô_hình máy họcquản dự_án it netc java python</t>
+          <t>weather prediction developer biometrics project thu_thập dữ_liệu api web xử_lý dữ_liệu đào_tạo dữ_liệu một_số mô_hình máy học quản_lý dự_án it netc java python quản_lý dự_án it netc java python</t>
         </is>
       </c>
     </row>
@@ -2541,22 +1491,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Data Analyst MB Bank  SQL Developer BRAVOSQL   Triển Khai Phần Mềm   Data Warehouse   CNTT - Phần mềm </t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>data analyst mb bank sql developer bravosql triển khai phần mềm data warehouse cntt phần mềm</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>data analyst mb bank sql developer bravosql triển_khai phần_mềm data warehouse cntt phần_mềm</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>data analyst mb bank sql developer bravosql triển_khai phần_mềm data warehouse cntt phần_mềm</t>
+          <t>data analyst mb bank sql developer bravo sql triển_khai phần_mềm data warehouse cntt phần_mềm sql triển_khai phần_mềm data warehouse cntt phần_mềm</t>
         </is>
       </c>
     </row>
@@ -2571,22 +1506,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">NashTech Viet Nam  • Tham gia The Rookies Program (3 tháng) tại NashTech với vị trí Java Back End • Tôi đã vượt qua chương trình này với thành tích tốt được người cố vấn/huấn luyện viên của tôi đánh giá.  .NET/C#   Frontend (HTML/CSS)  </t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>nashtech viet nam • tham gia the rookies program 3 tháng tại nashtech với vị trí java back end • tôi đã vượt qua chương trình này với thành tích tốt được người cố vấnhuấn luyện viên của tôi đánh giá netc frontend htmlcss</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>nashtech viet nam • tham_gia the rookies program 3 tháng tại nashtech với vị_trí java back end • tôi đã vượt qua chương_trình này với thành_tích tốt được người cố vấnhuấn luyện_viên của tôi đánh_giá netc frontend htmlcss</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>nashtech viet nam tham_gia the rookies program nashtech vị_trí java back end chương_trình thành_tích cố vấnhuấn luyện_viên đánh_giá netc frontend htmlcss</t>
+          <t>nashtech viet nam tham_gia the rookies program nashtech vị_trí java back end chương_trình thành_tích cố vấnhuấn luyện_viên đánh_giá netc frontend htmlcss netc frontend htmlcss</t>
         </is>
       </c>
     </row>
@@ -2601,22 +1521,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Reactjs Trang đặt vé xem phim   Công nghệ sử dụng User template Scss &amp; Boostrap, Admin reactjs, Asp.net core API, Asp.net core MVC (bản .net core 6) React Js , ASP.NET</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>reactjs trang đặt vé xem phim công nghệ sử dụng user template scss boostrap admin reactjs aspnet core api aspnet core mvc bản net core 6 react js aspnet</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>reactjs trang đặt vé xem phim công_nghệ sử_dụng user template scss boostrap admin reactjs aspnet core api aspnet core mvc bản net core 6 react js aspnet</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>reactjs trang vé phim công_nghệ sử_dụng user template scss boostrap admin reactjs aspnet core api aspnet core mvc net core react js aspnet</t>
+          <t>reactjs trang vé phim công_nghệ sử_dụng user template scss boostrap admin reactjs aspnet core api aspnet core mvc net core react js aspnet react js aspnet</t>
         </is>
       </c>
     </row>
@@ -2631,22 +1536,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thực Tập Sinh Lập Trình Viên Python CTY TNHH PHẦN MỀM BIWOCO  - Lấy thông tin giá nhà đất của các trang bất động sản lưu và database MySQL, tạo API cho người dùng tìm kiếm với FastAPI. - Clean code Python.Python   Javascript   </t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>thực tập sinh lập trình viên python cty tnhh phần mềm biwoco lấy thông tin giá nhà đất của các trang bất động sản lưu và database mysql tạo api cho người dùng tìm kiếm với fastapi clean code pythonpython javascript</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>thực_tập_sinh lập_trình_viên python cty_tnhh phần_mềm biwoco lấy thông_tin giá nhà_đất của các trang bất_động_sản lưu và database mysql tạo api cho người dùng tìm_kiếm với fastapi clean code pythonpython javascript</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>thực_tập_sinh lập_trình_viên python cty_tnhh phần_mềm biwoco thông_tin nhà_đất trang bất_động_sản lưu database mysql api tìm_kiếm fastapi clean code pythonpython javascript</t>
+          <t>thực_tập_sinh lập_trình_viên python cty_tnhh phần_mềm biwoco thông_tin nhà_đất trang bất_động_sản lưu database mysql api tìm_kiếm fastapi clean code python python javascript python javascript</t>
         </is>
       </c>
     </row>
@@ -2661,22 +1551,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Làm việc tại công ty A:    6/2022 - 8/2022 Tham gia nghiên cứu các dự án AI  Làm việc tại công ty B      6/2022 - 8/2022 Tham gia phát triển, sửa lỗi các phần mềm   Kỹ năng AI: Xử lý ảnh, xử lý ngôn ngữ tự nhiên Kỹ năng phát triển phần mềm: Web, mobile Ngoại ngữ Đọc tài liệu tốt, giao tiếp tương đối</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>làm việc tại công ty a 62022 82022 tham gia nghiên cứu các dự án ai làm việc tại công ty b 62022 82022 tham gia phát triển sửa lỗi các phần mềm kỹ năng ai xử lý ảnh xử lý ngôn ngữ tự nhiên kỹ năng phát triển phần mềm web mobile ngoại ngữ đọc tài liệu tốt giao tiếp tương đối</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>làm_việc tại công_ty a 62022 82022 tham_gia nghiên_cứu các dự_án ai làm_việc tại công_ty b 62022 82022 tham_gia phát_triển sửa lỗi các phần_mềm kỹ_năng ai xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu tốt giao_tiếp tương_đối</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>làm_việc công_ty tham_gia nghiên_cứu dự_án làm_việc công_ty b tham_gia phát_triển sửa lỗi phần_mềm kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối</t>
+          <t>làm_việc công_ty tham_gia nghiên_cứu dự_án làm_việc công_ty b tham_gia phát_triển sửa lỗi phần_mềm kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối</t>
         </is>
       </c>
     </row>
@@ -2691,22 +1566,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Front End Developer Nhat Tin Logistics Front  - Sử dụng ReactJS với thư viện Redux và Ant Design để thiết kế hệ thống CRM  Frontend (HTML/CSS)   ReactJs, NodeJS  </t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>front end developer nhat tin logistics front sử dụng reactjs với thư viện redux và ant design để thiết kế hệ thống crm frontend htmlcss reactjs nodejs</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>front end developer nhat tin logistics front sử_dụng reactjs với thư_viện redux và ant design để thiết_kế hệ_thống crm frontend htmlcss reactjs nodejs</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>front end developer nhat logistics front sử_dụng reactjs thư_viện redux ant design thiết_kế hệ_thống crm frontend htmlcss reactjs nodejs</t>
+          <t>front end developer nhat logistics front sử_dụng reactjs thư_viện redux ant design thiết_kế hệ_thống crm frontend htmlcss reactjs nodejs frontend htmlcss reactjs nodejs</t>
         </is>
       </c>
     </row>
@@ -2721,22 +1581,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nhân Viên – Lập Trình Công ty Cổ Phần Công Nghệ Tầm Nhìn Mới – Thành phố Hồ Chí Minh - Việt Nam   Lập trình, làm report các loại sổ sách và ,thiết kế Entity Form, cài đặt và hổ trợ khách hàng trong quá trình sử dụng phần mềm sử dụng công nghệ .NET (viết bằng VB.NET). Tham gia dự án ERP phần mềm kế toán .NET/C#   SQL   Triển Khai Phần Mềm   Chăm Sóc Khách Hàng  </t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>nhân viên – lập trình công ty cổ phần công nghệ tầm nhìn mới – thành phố hồ chí minh việt nam lập trình làm report các loại sổ sách và thiết kế entity form cài đặt và hổ trợ khách hàng trong quá trình sử dụng phần mềm sử dụng công nghệ net viết bằng vbnet tham gia dự án erp phần mềm kế toán netc sql triển khai phần mềm chăm sóc khách hàng</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>nhân_viên – lập_trình công_ty cổ_phần công_nghệ tầm nhìn mới – thành_phố hồ chí minh việt_nam lập_trình làm report các loại sổ_sách và thiết_kế entity form cài_đặt và hổ trợ khách_hàng trong quá_trình sử_dụng phần_mềm sử_dụng công_nghệ net viết bằng vbnet tham_gia dự_án erp phần_mềm kế_toán netc sql triển_khai phần_mềm chăm_sóc khách_hàng</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>nhân_viên lập_trình công_ty cổ_phần công_nghệ tầm thành_phố minh việt_nam lập_trình report sổ_sách thiết_kế entity form cài_đặt hổ khách_hàng quá_trình sử_dụng phần_mềm sử_dụng công_nghệ net viết vbnet tham_gia dự_án erp phần_mềm kế_toán netc sql triển_khai phần_mềm chăm_sóc khách_hàng</t>
+          <t>nhân_viên lập_trình công_ty cổ_phần công_nghệ tầm thành_phố minh việt_nam lập_trình report sổ_sách thiết_kế entity form cài_đặt hổ khách_hàng quá_trình sử_dụng phần_mềm sử_dụng công_nghệ net viết vbnet tham_gia dự_án erp phần_mềm kế_toán netc sql triển_khai phần_mềm chăm_sóc khách_hàng netc sql triển_khai phần_mềm chăm_sóc khách_hàng</t>
         </is>
       </c>
     </row>
@@ -2751,22 +1596,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Làm việc tại công ty A:    6/2022 - 8/2022 Tham gia nghiên cứu các dự án AI  Làm việc tại công ty B      6/2022 - 8/2022 Tham gia phát triển, sửa lỗi các phần mềm   Kỹ năng AI: Xử lý ảnh, xử lý ngôn ngữ tự nhiên Kỹ năng phát triển phần mềm: Web, mobile Ngoại ngữ Đọc tài liệu tốt, giao tiếp tương đối</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>làm việc tại công ty a 62022 82022 tham gia nghiên cứu các dự án ai làm việc tại công ty b 62022 82022 tham gia phát triển sửa lỗi các phần mềm kỹ năng ai xử lý ảnh xử lý ngôn ngữ tự nhiên kỹ năng phát triển phần mềm web mobile ngoại ngữ đọc tài liệu tốt giao tiếp tương đối</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>làm_việc tại công_ty a 62022 82022 tham_gia nghiên_cứu các dự_án ai làm_việc tại công_ty b 62022 82022 tham_gia phát_triển sửa lỗi các phần_mềm kỹ_năng ai xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu tốt giao_tiếp tương_đối</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>làm_việc công_ty tham_gia nghiên_cứu dự_án làm_việc công_ty b tham_gia phát_triển sửa lỗi phần_mềm kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối</t>
+          <t>làm_việc công_ty tham_gia nghiên_cứu dự_án làm_việc công_ty b tham_gia phát_triển sửa lỗi phần_mềm kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối kỹ_năng xử_lý ảnh xử_lý ngôn_ngữ tự_nhiên kỹ_năng phát_triển phần_mềm web mobile ngoại_ngữ đọc tài_liệu giao_tiếp tương_đối</t>
         </is>
       </c>
     </row>
@@ -2781,22 +1611,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Teacher Assistant ZALO Associate Data Scientist  Associate Data Scientist - Xây dựng hệ thống NER cạnh tranh với các sản phẩm thương mại. - Xây dựng phân loại nội dung. - Khai thác dữ liệu sở thích của người dùng.  Software Engineering Intern OPSWAT VIETNAM  - Phát triển các tính năng mới cho dự án Deep CDR. - Xây dựng trình phát hiện macro độc hại và trình phân loại tệp PDF.SQL   Python   .NET/C#   ASP.NET   Trợ Giảng   Ngoại Ngữ    </t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>teacher assistant zalo associate data scientist associate data scientist xây dựng hệ thống ner cạnh tranh với các sản phẩm thương mại xây dựng phân loại nội dung khai thác dữ liệu sở thích của người dùng software engineering intern opswat vietnam phát triển các tính năng mới cho dự án deep cdr xây dựng trình phát hiện macro độc hại và trình phân loại tệp pdfsql python netc aspnet trợ giảng ngoại ngữ</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>teacher assistant zalo associate data scientist associate data scientist xây_dựng hệ_thống ner cạnh_tranh với các sản_phẩm thương_mại xây_dựng phân_loại nội_dung khai_thác dữ_liệu sở_thích của người dùng software engineering intern opswat vietnam phát_triển các tính_năng mới cho dự_án deep cdr xây_dựng trình phát_hiện macro độc_hại và trình phân_loại tệp pdfsql python netc aspnet trợ_giảng ngoại_ngữ</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>teacher assistant zalo associate data scientist associate data scientist xây_dựng hệ_thống ner cạnh_tranh sản_phẩm thương_mại xây_dựng phân_loại nội_dung khai_thác dữ_liệu sở_thích software engineering intern opswat vietnam phát_triển tính_năng dự_án deep cdr xây_dựng phát_hiện macro độc_hại phân_loại tệp pdfsql python netc aspnet trợ_giảng ngoại_ngữ</t>
+          <t>teacher assistant zalo associate data scientist associate data scientist xây_dựng hệ_thống ner cạnh_tranh sản_phẩm thương_mại xây_dựng phân_loại nội_dung khai_thác dữ_liệu sở_thích software engineering intern opswat vietnam phát_triển tính_năng dự_án deep cdr xây_dựng phát_hiện macro độc_hại phân_loại tệp pdf sql python netc aspnet trợ_giảng ngoại_ngữ sql python netc aspnet trợ_giảng ngoại_ngữ</t>
         </is>
       </c>
     </row>
@@ -2811,22 +1626,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">QA Automation Tester TMA Solutions Thiết kế và thực hiện các trường hợp thử nghiệm theo thông số kỹ thuật. Theo dõi và quản lý vòng đời của các vấn đề/lỗi trong các hệ thống theo dõi. Thiết kế và thực hiện các bài kiểm tra tự động dựa trên các trường hợp kiểm tra hiện có. Cải thiện/cập nhật các trường hợp thử nghiệm hiện có để tăng hiệu quả và độ tin cậy. Cộng tác với các nhà phát triển và nhóm sản phẩm để cung cấp phản hồi và hướng dẫn để thiết lập các chiến lược thử nghiệm.QA/Test   SQL   Nghiên Cứu Thị Trường   Data Analytics   Java   .NET/C#  </t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>qa automation tester tma solutions thiết kế và thực hiện các trường hợp thử nghiệm theo thông số kỹ thuật theo dõi và quản lý vòng đời của các vấn đềlỗi trong các hệ thống theo dõi thiết kế và thực hiện các bài kiểm tra tự động dựa trên các trường hợp kiểm tra hiện có cải thiệncập nhật các trường hợp thử nghiệm hiện có để tăng hiệu quả và độ tin cậy cộng tác với các nhà phát triển và nhóm sản phẩm để cung cấp phản hồi và hướng dẫn để thiết lập các chiến lược thử nghiệmqatest sql nghiên cứu thị trường data analytics java netc</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>qa automation tester tma solutions thiết_kế và thực_hiện các trường_hợp thử_nghiệm theo thông_số kỹ_thuật theo_dõi và quản_lý vòng đời của các vấn đềlỗi trong các hệ_thống theo_dõi thiết_kế và thực_hiện các bài kiểm_tra tự_động dựa trên các trường_hợp kiểm_tra hiện có cải thiệncập nhật các trường_hợp thử_nghiệm hiện có để tăng hiệu_quả và độ tin_cậy cộng_tác với các nhà phát_triển và nhóm sản_phẩm để cung_cấp phản_hồi và hướng_dẫn để thiết_lập các chiến_lược thử nghiệmqatest sql nghiên_cứu thị_trường data analytics java netc</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>qa automation tester tma solutions thiết_kế thực_hiện trường_hợp thử_nghiệm thông_số kỹ_thuật theo_dõi quản_lý vòng đời đềlỗi hệ_thống theo_dõi thiết_kế thực_hiện kiểm_tra tự_động dựa trường_hợp kiểm_tra cải thiệncập nhật trường_hợp thử_nghiệm hiệu_quả độ tin_cậy cộng_tác phát_triển sản_phẩm cung_cấp phản_hồi hướng_dẫn thiết_lập chiến_lược nghiệmqatest sql nghiên_cứu thị_trường data analytics java netc</t>
+          <t>qa automation tester tma solutions thiết_kế thực_hiện trường_hợp thử_nghiệm thông_số kỹ_thuật theo_dõi quản_lý vòng đời đềlỗi hệ_thống theo_dõi thiết_kế thực_hiện kiểm_tra tự_động dựa trường_hợp kiểm_tra cải thiệncập nhật trường_hợp thử_nghiệm hiệu_quả độ tin_cậy cộng_tác phát_triển sản_phẩm cung_cấp phản_hồi hướng_dẫn thiết_lập chiến_lược thử_nghiệm qatest sql nghiên_cứu thị_trường data analytics java netc qatest sql nghiên_cứu thị_trường data analytics java netc</t>
         </is>
       </c>
     </row>
@@ -2841,22 +1641,52 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nhân Viên Lập Trình Front-End Ngân Hà Tech - Kinh nghiệm làm việc với Yii Framework.Backend   PHP   Frontend (HTML/CSS)   QA/Test   Javascript   SQL    Làm việc nhóm Giải quyết vấn đề Hòa đồng </t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>nhân viên lập trình frontend ngân hà tech kinh nghiệm làm việc với yii frameworkbackend php frontend htmlcss qatest javascript sql làm việc nhóm giải quyết vấn đề hòa đồng</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>nhân_viên lập_trình frontend ngân_hà tech kinh_nghiệm làm_việc với yii frameworkbackend php frontend htmlcss qatest javascript sql làm_việc nhóm giải_quyết vấn_đề hòa đồng</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>nhân_viên lập_trình frontend ngân_hà tech kinh_nghiệm làm_việc yii frameworkbackend php frontend htmlcss qatest javascript sql làm_việc giải_quyết vấn_đề hòa</t>
+          <t>nhân_viên lập_trình frontend ngân_hà tech kinh_nghiệm làm_việc yii framework backend php frontend htmlcss qatest javascript sql làm_việc giải_quyết vấn_đề hòa backend php frontend htmlcss qatest javascript sql làm_việc giải_quyết vấn_đề hòa</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>638d66e41f0cde168c90edd0</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>node js nodejs nodejs nodejs nodejs nodejs</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>6391d83460c5c272169dac4d</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>nodejs nodejs node js nodejs nodejs node js nodejs nodejs node js</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>6393fbc9125f3c397f9e3896</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>làm_việc python machine learning kỹ_năng chuyên_môn python machine learning javascript kỹ_năng mềm giao_tiếp_quản_lý thời_gian kỹ_năng chuyên_môn python machine learning javascript kỹ_năng mềm giao_tiếp_quản_lý thời_gian</t>
         </is>
       </c>
     </row>
